--- a/Resultados/Evaluacion_Documentos.xlsx
+++ b/Resultados/Evaluacion_Documentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\DataPrivacy\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5870C-4FBE-4C46-94CA-2983AF28A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7CD1C0-7A31-4010-A7A1-D05A7D29CC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A8DA742-609F-4DE4-93DE-378A477D6C5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="840">
   <si>
     <t>Ref</t>
   </si>
@@ -930,6 +930,1632 @@
   </si>
   <si>
     <t>Digital Public Policy Review</t>
+  </si>
+  <si>
+    <t>Garrison2019Comparative</t>
+  </si>
+  <si>
+    <t>Comparación entre el GDPR de la UE y las leyes de notificación de brechas en EE. UU.</t>
+  </si>
+  <si>
+    <t>GDPR, Leyes de EE. UU. sobre brechas de seguridad</t>
+  </si>
+  <si>
+    <t>Analizar las diferencias y retos de implementación entre el GDPR europeo y las leyes de notificación de brechas de seguridad en EE. UU.</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información, Administración pública</t>
+  </si>
+  <si>
+    <t>Gefenas2021Controversies</t>
+  </si>
+  <si>
+    <t>Controversias entre la ética de la investigación y la protección de datos personales</t>
+  </si>
+  <si>
+    <t>GDPR, Declaración de Helsinki, CIOMS</t>
+  </si>
+  <si>
+    <t>Explorar controversias sobre el consentimiento informado en la investigación de datos personales</t>
+  </si>
+  <si>
+    <t>Investigación, Salud</t>
+  </si>
+  <si>
+    <t>Medicine, Health Care and Philosophy</t>
+  </si>
+  <si>
+    <t>Salud, Investigación</t>
+  </si>
+  <si>
+    <t>Georgiou2021Data</t>
+  </si>
+  <si>
+    <t>Evaluación de Impacto de la Protección de Datos (DPIA) en sistemas de salud basados en la nube</t>
+  </si>
+  <si>
+    <t>GDPR (Regulation (EU) 2016/679), PIA-CNIL, ISO/IEC 29134:2017</t>
+  </si>
+  <si>
+    <t>Presentar los pasos de una DPIA para garantizar el cumplimiento del GDPR en los sistemas de salud basados en la nube</t>
+  </si>
+  <si>
+    <t>Future Internet</t>
+  </si>
+  <si>
+    <t>Giordanengo2019Possible</t>
+  </si>
+  <si>
+    <t>Usos posibles de contratos inteligentes en salud y limitaciones</t>
+  </si>
+  <si>
+    <t>Revisar el estado del arte sobre contratos inteligentes en salud, con énfasis en compartir datos.</t>
+  </si>
+  <si>
+    <t>MEDINFO 2019: Health and Wellbeing e-Networks for All</t>
+  </si>
+  <si>
+    <t>Salus</t>
+  </si>
+  <si>
+    <t>Hansen2024Universal</t>
+  </si>
+  <si>
+    <t>Modelo de datos universal para compartir datos en la estrategia europea</t>
+  </si>
+  <si>
+    <t>GDPR, Data Governance Act, Digital Markets Act, Data Act</t>
+  </si>
+  <si>
+    <t>Proponer un modelo de datos universal para compartir datos de manera legalmente conforme en la UE</t>
+  </si>
+  <si>
+    <t>Investigación, Gobernanza</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Computer Science (Springer)</t>
+  </si>
+  <si>
+    <t>Hauselmann2024Substantive</t>
+  </si>
+  <si>
+    <t>Elementos de equidad sustantiva en el GDPR: interpretación del artículo 5.1a</t>
+  </si>
+  <si>
+    <t>GDPR, EU consumer law, EU competition law, EU Charter</t>
+  </si>
+  <si>
+    <t>Analizar e interpretar el principio de equidad en el GDPR, destacando elementos sustantivos como guía</t>
+  </si>
+  <si>
+    <t>Ley y regulación</t>
+  </si>
+  <si>
+    <t>Ley y Regulación</t>
+  </si>
+  <si>
+    <t>Hawig2019Designing</t>
+  </si>
+  <si>
+    <t>Diseño de un sistema basado en DLT para el intercambio de datos de salud conforme al GDPR</t>
+  </si>
+  <si>
+    <t>Diseñar un sistema de intercambio de datos de glucosa en sangre conforme al GDPR</t>
+  </si>
+  <si>
+    <t>Journal of Medical Internet Research</t>
+  </si>
+  <si>
+    <t>Heenriksen2022Privacy</t>
+  </si>
+  <si>
+    <t>Objetivos de privacidad para el ciclo de vida de los datos</t>
+  </si>
+  <si>
+    <t>GDPR, Horizon 2020 (Ideal-Cities Project)</t>
+  </si>
+  <si>
+    <t>Proponer un marco de soporte para decisiones de privacidad basado en un ciclo de vida de datos</t>
+  </si>
+  <si>
+    <t>Future Internet (MDPI)</t>
+  </si>
+  <si>
+    <t>Holbi2021Data</t>
+  </si>
+  <si>
+    <t>Heterogeneidad en la protección de datos en la Unión Europea</t>
+  </si>
+  <si>
+    <t>GDPR, legislación nacional de los estados miembros de la UE</t>
+  </si>
+  <si>
+    <t>Comparar la legislación de protección de datos en los estados miembros de la UE, destacando derogaciones y extensiones del GDPR</t>
+  </si>
+  <si>
+    <t>Applied Sciences (MDPI)</t>
+  </si>
+  <si>
+    <t>Hyan2024Use</t>
+  </si>
+  <si>
+    <t>Casos de uso que requieren vinculación de registros preservando la privacidad en oncología pediátrica</t>
+  </si>
+  <si>
+    <t>GDPR, EHDS (European Health Data Space)</t>
+  </si>
+  <si>
+    <t>Explorar casos de uso actuales y futuros de la vinculación de registros para datos distribuidos en oncología pediátrica</t>
+  </si>
+  <si>
+    <t>Cancers (MDPI)</t>
+  </si>
+  <si>
+    <t>Jacobs2019Medical</t>
+  </si>
+  <si>
+    <t>Comentario en revista</t>
+  </si>
+  <si>
+    <t>La privacidad en la investigación médica con Big Data</t>
+  </si>
+  <si>
+    <t>GDPR, ISO27001, ISO27002, ISO25237</t>
+  </si>
+  <si>
+    <t>Proponer un enfoque de privacidad por diseño en investigaciones médicas, basado en cohortes y Big Data.</t>
+  </si>
+  <si>
+    <t>Big Data &amp; Society (SAGE)</t>
+  </si>
+  <si>
+    <t>Jasserand2022Research</t>
+  </si>
+  <si>
+    <t>Desafíos del GDPR para la creación de grandes conjuntos de datos biométricos para investigación</t>
+  </si>
+  <si>
+    <t>GDPR, Data Governance Act (DGA)</t>
+  </si>
+  <si>
+    <t>Analizar las limitaciones legales y regulatorias para constituir grandes conjuntos de datos biométricos en la UE.</t>
+  </si>
+  <si>
+    <t>Investigación, Biometría</t>
+  </si>
+  <si>
+    <t>BIOSIG 2022 (IEEE)</t>
+  </si>
+  <si>
+    <t>Julesz2022Health</t>
+  </si>
+  <si>
+    <t>Equidad en salud y protección de datos de salud en telemedicina durante la pandemia de COVID-19</t>
+  </si>
+  <si>
+    <t>GDPR, HIPAA, Convención 108, Carta de los Derechos Fundamentales de la UE</t>
+  </si>
+  <si>
+    <t>Explorar la relación entre equidad en salud y la protección de datos en telemedicina en contextos legales y éticos.</t>
+  </si>
+  <si>
+    <t>Salud, Telemedicina</t>
+  </si>
+  <si>
+    <t>Információs Társadalom XXII</t>
+  </si>
+  <si>
+    <t>Kang2020Algorithmic</t>
+  </si>
+  <si>
+    <t>Rendición de cuentas algorítmica en la administración pública y paradojas del GDPR</t>
+  </si>
+  <si>
+    <t>Analizar el papel del GDPR en decisiones automatizadas en la administración pública y su impacto en la rendición de cuentas.</t>
+  </si>
+  <si>
+    <t>Administración pública</t>
+  </si>
+  <si>
+    <t>FAT* ’20 (ACM)</t>
+  </si>
+  <si>
+    <t>Karampela2019Exploring</t>
+  </si>
+  <si>
+    <t>Disposición de los usuarios para compartir datos personales y de salud bajo el GDPR</t>
+  </si>
+  <si>
+    <t>Investigar cómo el GDPR afecta la disposición de los usuarios a compartir datos personales en salud.</t>
+  </si>
+  <si>
+    <t>Salud, Privacidad</t>
+  </si>
+  <si>
+    <t>IEEE International Conference</t>
+  </si>
+  <si>
+    <t>Kaur2022Protecting</t>
+  </si>
+  <si>
+    <t>Protección de la privacidad de los datos de los agricultores en la agricultura de precisión</t>
+  </si>
+  <si>
+    <t>GDPR, CCPA, PIPEDA</t>
+  </si>
+  <si>
+    <t>Proveer recomendaciones para proteger la privacidad y confidencialidad de los datos en la agricultura de precisión.</t>
+  </si>
+  <si>
+    <t>Agricultura, Tecnología</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainable Food Systems</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Kerschbaum2009Practical</t>
+  </si>
+  <si>
+    <t>Protocolos prácticos de privacidad en análisis de redes sociales para investigaciones criminales</t>
+  </si>
+  <si>
+    <t>Directiva 95/46/EC (Protección de datos en la UE)</t>
+  </si>
+  <si>
+    <t>Proponer un protocolo para realizar análisis de redes sociales preservando la privacidad en investigaciones criminales.</t>
+  </si>
+  <si>
+    <t>Justicia y cumplimiento de la ley</t>
+  </si>
+  <si>
+    <t>Justicia</t>
+  </si>
+  <si>
+    <t>Kertesz2024Collaboration</t>
+  </si>
+  <si>
+    <t>Colaboración en la atención sanitaria: uso secundario de datos en la Unión Europea</t>
+  </si>
+  <si>
+    <t>Examinar los desafíos legales asociados con el uso secundario de datos de salud en la UE y proponer mejoras.</t>
+  </si>
+  <si>
+    <t>Salud, Innovación</t>
+  </si>
+  <si>
+    <t>Ketmaneechairat2024Towards</t>
+  </si>
+  <si>
+    <t>Marco para integrar la protección de datos personales y la gobernanza de datos en Tailandia</t>
+  </si>
+  <si>
+    <t>GDPR, PDPA (Personal Data Protection Act, Tailandia)</t>
+  </si>
+  <si>
+    <t>Proponer un marco de gestión para integrar la protección de datos personales y la gobernanza de datos en el contexto tailandés.</t>
+  </si>
+  <si>
+    <t>Gobernanza de datos, Cumplimiento legal</t>
+  </si>
+  <si>
+    <t>International Journal of Technology</t>
+  </si>
+  <si>
+    <t>Kist2023Assessment</t>
+  </si>
+  <si>
+    <t>Evaluación de las normas holandesas sobre datos de salud a la luz del GDPR</t>
+  </si>
+  <si>
+    <t>GDPR, Código de Conducta para Investigación en Salud (Países Bajos)</t>
+  </si>
+  <si>
+    <t>Evaluar cómo las normas holandesas relacionadas con los datos de salud se alinean con el GDPR y explorar alternativas regulatorias.</t>
+  </si>
+  <si>
+    <t>Knoppers2023Open</t>
+  </si>
+  <si>
+    <t>Uso de datos abiertos en proyectos globales bajo el marco del GDPR</t>
+  </si>
+  <si>
+    <t>GDPR, Data Governance Act, OECD Privacy Guidelines</t>
+  </si>
+  <si>
+    <t>Explorar cómo el Human Cell Atlas enfrenta los desafíos éticos y regulatorios en la era del GDPR</t>
+  </si>
+  <si>
+    <t>Investigación, Genómica</t>
+  </si>
+  <si>
+    <t>Annual Review of Genomics and Human Genetics</t>
+  </si>
+  <si>
+    <t>Kurteva2023smashHitCore</t>
+  </si>
+  <si>
+    <t>smashHitCore Ontology para compartir datos de sensores compatibles con el GDPR en ciudades inteligentes</t>
+  </si>
+  <si>
+    <t>GDPR, Data Governance Act, ISO/IEC 27001</t>
+  </si>
+  <si>
+    <t>Proporcionar un modelo ontológico unificado para gestionar consentimiento y contratos en contextos de datos complejos.</t>
+  </si>
+  <si>
+    <t>Ciudades Inteligentes, Seguros</t>
+  </si>
+  <si>
+    <t>Sensors (MDPI)</t>
+  </si>
+  <si>
+    <t>Lalova2023Patients</t>
+  </si>
+  <si>
+    <t>Perspectivas de los pacientes sobre la protección de datos y herramientas de control</t>
+  </si>
+  <si>
+    <t>GDPR, Data Governance Act (DGA), EHDS</t>
+  </si>
+  <si>
+    <t>Investigar el conocimiento de pacientes sobre el GDPR, su experiencia con derechos de datos y sus preferencias hacia herramientas de control.</t>
+  </si>
+  <si>
+    <t>Frontiers in Pharmacology</t>
+  </si>
+  <si>
+    <t>Georgiadis2021Enterprise</t>
+  </si>
+  <si>
+    <t>Uso de Enterprise Architecture Management (EAM) para cumplir con el GDPR en Big Data</t>
+  </si>
+  <si>
+    <t>GDPR, Data Protection Directive (DPD)</t>
+  </si>
+  <si>
+    <t>Explorar cómo las prácticas de EAM pueden abordar los desafíos del GDPR en el contexto de Big Data.</t>
+  </si>
+  <si>
+    <t>Big Data, Gobernanza</t>
+  </si>
+  <si>
+    <t>Information Systems and e-Business Management</t>
+  </si>
+  <si>
+    <t>Faifr2020Factors</t>
+  </si>
+  <si>
+    <t>Factores que determinan el alcance de la implementación del GDPR</t>
+  </si>
+  <si>
+    <t>GDPR, Directiva de Protección de Datos (DPD)</t>
+  </si>
+  <si>
+    <t>Identificar factores clave que afectan la implementación del GDPR, enfocándose en costes y estrategias.</t>
+  </si>
+  <si>
+    <t>Empresas, Regulación</t>
+  </si>
+  <si>
+    <t>Journal of Business Economics and Management</t>
+  </si>
+  <si>
+    <t>Laudadio2024Personal</t>
+  </si>
+  <si>
+    <t>Transferencia de datos personales fuera del EEE en sitios web de la Administración Pública Italiana</t>
+  </si>
+  <si>
+    <t>GDPR, Decisiones de Adecuación de la Comisión Europea</t>
+  </si>
+  <si>
+    <t>Evaluar las transferencias de datos personales de sitios web públicos italianos hacia terceros países y proponer soluciones tecnológicas.</t>
+  </si>
+  <si>
+    <t>International Conference on Information Technology for Social Good</t>
+  </si>
+  <si>
+    <t>Leite2022Impact</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en las prácticas de ingeniería de software</t>
+  </si>
+  <si>
+    <t>Explorar los cambios en las prácticas de desarrollo de software causados por la implementación del GDPR.</t>
+  </si>
+  <si>
+    <t>Ingeniería de software</t>
+  </si>
+  <si>
+    <t>Information &amp; Computer Security</t>
+  </si>
+  <si>
+    <t>Lenca2022Mental</t>
+  </si>
+  <si>
+    <t>Protección de datos mentales bajo el GDPR</t>
+  </si>
+  <si>
+    <t>Analizar cómo el GDPR aborda los riesgos asociados con los datos mentales y proponer evaluaciones de impacto específicas.</t>
+  </si>
+  <si>
+    <t>Neurociencia, Privacidad</t>
+  </si>
+  <si>
+    <t>Neurociencia</t>
+  </si>
+  <si>
+    <t>Lesaulnier2019Recherche</t>
+  </si>
+  <si>
+    <t>Protección de datos personales en investigación en salud bajo el RGPD</t>
+  </si>
+  <si>
+    <t>GDPR, French Law "Informatique et Libertés", RIPH (Ley francesa)</t>
+  </si>
+  <si>
+    <t>Analizar las complejidades legales y regulatorias en la protección de datos personales en investigaciones de salud en Francia.</t>
+  </si>
+  <si>
+    <t>Salud, Regulación</t>
+  </si>
+  <si>
+    <t>Médecine &amp; Droit</t>
+  </si>
+  <si>
+    <t>Lisiak2018Assessment</t>
+  </si>
+  <si>
+    <t>Preparación de la administración local polaca para cumplir con el GDPR</t>
+  </si>
+  <si>
+    <t>Evaluar el grado de preparación de la administración local en Polonia para implementar los requisitos del GDPR.</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Lisiak2019GDPR</t>
+  </si>
+  <si>
+    <t>Implementación del GDPR en las administraciones locales de Polonia y Lituania</t>
+  </si>
+  <si>
+    <t>Evaluar la preparación de las administraciones locales en Polonia y Lituania para implementar los requisitos del GDPR.</t>
+  </si>
+  <si>
+    <t>Li2019Impact</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en el desarrollo de tecnología global</t>
+  </si>
+  <si>
+    <t>Analizar los desafíos y oportunidades que el GDPR presenta para el desarrollo tecnológico global, enfocándose en EE. UU. y China.</t>
+  </si>
+  <si>
+    <t>Tecnología, Gobernanza</t>
+  </si>
+  <si>
+    <t>Journal of Global Information Technology Management</t>
+  </si>
+  <si>
+    <t>Liss2021Demystifying</t>
+  </si>
+  <si>
+    <t>Análisis de la decisión Schrems II en el contexto de transferencia de datos para investigación clínica</t>
+  </si>
+  <si>
+    <t>GDPR, Schrems II, FISA (Sección 702), EO 12333</t>
+  </si>
+  <si>
+    <t>Analizar cómo la decisión Schrems II afecta la transferencia de datos clínicos entre la EEA y los EE. UU., y proponer estrategias para garantizar el cumplimiento.</t>
+  </si>
+  <si>
+    <t>Investigación Clínica</t>
+  </si>
+  <si>
+    <t>Lopes2020General</t>
+  </si>
+  <si>
+    <t>Implementación del GDPR en clínicas de salud en Portugal</t>
+  </si>
+  <si>
+    <t>Evaluar la implementación del GDPR en clínicas de salud portuguesas y analizar los desafíos asociados.</t>
+  </si>
+  <si>
+    <t>Journal of Medical Systems</t>
+  </si>
+  <si>
+    <t>Magrath2018Transparency</t>
+  </si>
+  <si>
+    <t>Transparencia y protección de datos en el contexto de la digitalización de los tribunales</t>
+  </si>
+  <si>
+    <t>GDPR, Data Protection Act 2018 (UK)</t>
+  </si>
+  <si>
+    <t>Examinar el equilibrio entre la transparencia y la privacidad en los tribunales digitales y en línea.</t>
+  </si>
+  <si>
+    <t>Justicia, Regulación</t>
+  </si>
+  <si>
+    <t>Legal Information Management</t>
+  </si>
+  <si>
+    <t>Mahmud2022Towards</t>
+  </si>
+  <si>
+    <t>Desarrollo de un marco de gobernanza blockchain compatible con el GDPR</t>
+  </si>
+  <si>
+    <t>Proponer un marco de gobernanza para blockchain que cumpla con el GDPR, resolviendo tensiones como el control de datos y el derecho al olvido.</t>
+  </si>
+  <si>
+    <t>Tecnología, Blockchain</t>
+  </si>
+  <si>
+    <t>IFIP International Federation for Information Processing</t>
+  </si>
+  <si>
+    <t>Marassi2021Is</t>
+  </si>
+  <si>
+    <t>Privacidad de datos y rastreadores de actividad en el lugar de trabajo</t>
+  </si>
+  <si>
+    <t>GDPR, Artículo 9 GDPR</t>
+  </si>
+  <si>
+    <t>Evaluar la legalidad del uso de rastreadores de actividad en el trabajo y proponer modelos alternativos compatibles con el GDPR.</t>
+  </si>
+  <si>
+    <t>Trabajo, Regulación</t>
+  </si>
+  <si>
+    <t>International Journal of Comparative Labour Law</t>
+  </si>
+  <si>
+    <t>Marelli2020Fit</t>
+  </si>
+  <si>
+    <t>Evaluación del GDPR en el ecosistema de salud digital europeo</t>
+  </si>
+  <si>
+    <t>Analizar tensiones entre el GDPR y la gobernanza de tecnologías de salud digital en el contexto europeo.</t>
+  </si>
+  <si>
+    <t>Salud Digital</t>
+  </si>
+  <si>
+    <t>Policy Studies</t>
+  </si>
+  <si>
+    <t>Marelli2021Big</t>
+  </si>
+  <si>
+    <t>Plataformas Big Tech en investigación de salud y exenciones del GDPR</t>
+  </si>
+  <si>
+    <t>Examinar cómo las exenciones del GDPR afectan las actividades de investigación de plataformas Big Tech y proponer enfoques basados en el uso para la gobernanza de datos.</t>
+  </si>
+  <si>
+    <t>Salud Digital, Big Tech</t>
+  </si>
+  <si>
+    <t>Big Data &amp; Society</t>
+  </si>
+  <si>
+    <t>Marovic2020Impact</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en la gestión de datos de salud en Serbia</t>
+  </si>
+  <si>
+    <t>GDPR, PDPA18 (Personal Data Protection Act 2018, Serbia)</t>
+  </si>
+  <si>
+    <t>Analizar cómo la implementación del GDPR influye en la capacidad de Serbia para manejar datos de salud y colaborar internacionalmente en investigaciones.</t>
+  </si>
+  <si>
+    <t>JMIR Medical Informatics</t>
+  </si>
+  <si>
+    <t>Martin2019How</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en la innovación de startups</t>
+  </si>
+  <si>
+    <t>Explorar cómo el GDPR afecta la innovación en startups, identificando respuestas empresariales y barreras regulatorias.</t>
+  </si>
+  <si>
+    <t>Startups, Innovación</t>
+  </si>
+  <si>
+    <t>Information Systems Frontiers</t>
+  </si>
+  <si>
+    <t>McLennan2020COVID</t>
+  </si>
+  <si>
+    <t>Evaluación del GDPR en la gestión de datos de salud durante la pandemia de COVID-19</t>
+  </si>
+  <si>
+    <t>GDPR, EDPB Guidelines</t>
+  </si>
+  <si>
+    <t>Analizar cómo el GDPR puede apoyar o dificultar la investigación global en salud durante emergencias como la COVID-19.</t>
+  </si>
+  <si>
+    <t>JMIR Public Health and Surveillance</t>
+  </si>
+  <si>
+    <t>Meier2020Legal</t>
+  </si>
+  <si>
+    <t>Retos legales para proveedores de servicios IT en farmacogenómica</t>
+  </si>
+  <si>
+    <t>GDPR, MDR, ISO 13485</t>
+  </si>
+  <si>
+    <t>Analizar los desafíos regulatorios que enfrentan las startups en farmacogenómica al cumplir con el GDPR y la MDR.</t>
+  </si>
+  <si>
+    <t>Salud, Tecnología</t>
+  </si>
+  <si>
+    <t>The Importance of Health Informatics in Public Health during a Pandemic</t>
+  </si>
+  <si>
+    <t>Mendelson2018European</t>
+  </si>
+  <si>
+    <t>Comparación del GDPR y el esquema My Health Record de Australia</t>
+  </si>
+  <si>
+    <t>GDPR, My Health Record Act 2012 (Cth)</t>
+  </si>
+  <si>
+    <t>Comparar las disposiciones de consentimiento del GDPR con las prácticas del esquema My Health Record en Australia.</t>
+  </si>
+  <si>
+    <t>Journal of Law and Medicine</t>
+  </si>
+  <si>
+    <t>Mezinska2020Legal</t>
+  </si>
+  <si>
+    <t>Cuestiones legales y éticas en el uso secundario de datos administrativos de salud en Letonia</t>
+  </si>
+  <si>
+    <t>GDPR, Personal Data Processing Law (Letonia)</t>
+  </si>
+  <si>
+    <t>Analizar los desafíos legales y éticos asociados con el uso secundario de datos administrativos de salud para investigación.</t>
+  </si>
+  <si>
+    <t>Digital Personalized Health and Medicine</t>
+  </si>
+  <si>
+    <t>Miloudia2022Telesoin</t>
+  </si>
+  <si>
+    <t>Protección de datos en actividades de telecuidado en farmacias</t>
+  </si>
+  <si>
+    <t>GDPR, HDS, CSP (Code de la santé publique)</t>
+  </si>
+  <si>
+    <t>Evaluar las normativas de protección de datos en el contexto del telecuidado farmacéutico en Francia y proponer buenas prácticas.</t>
+  </si>
+  <si>
+    <t>Farmacia, Telemedicina</t>
+  </si>
+  <si>
+    <t>Actualités Pharmaceutiques</t>
+  </si>
+  <si>
+    <t>Molnar2023Az</t>
+  </si>
+  <si>
+    <t>Uso de datos sensibles en la medicina personalizada mediante aprendizaje federado</t>
+  </si>
+  <si>
+    <t>GDPR, FAIR Principles</t>
+  </si>
+  <si>
+    <t>Analizar cómo el aprendizaje federado puede resolver desafíos de privacidad al compartir datos sensibles en biobancos.</t>
+  </si>
+  <si>
+    <t>Salud, Medicina Personalizada</t>
+  </si>
+  <si>
+    <t>Orvosi Hetilap</t>
+  </si>
+  <si>
+    <t>Salud, Biobancos</t>
+  </si>
+  <si>
+    <t>Molnar2023Schutz</t>
+  </si>
+  <si>
+    <t>Protección de derechos y libertades en la gestión de datos de salud bajo el enfoque de riesgo del GDPR</t>
+  </si>
+  <si>
+    <t>GDPR, EHDS, Carta de Derechos Fundamentales de la UE</t>
+  </si>
+  <si>
+    <t>Analizar cómo el enfoque basado en riesgos del GDPR afecta la gestión de datos en el sector salud, incluyendo transferencias internacionales.</t>
+  </si>
+  <si>
+    <t>Bundesgesundheitsblatt</t>
+  </si>
+  <si>
+    <t>Mone2023Health</t>
+  </si>
+  <si>
+    <t>Preocupaciones sobre privacidad en tecnologías portátiles de salud</t>
+  </si>
+  <si>
+    <t>GDPR, Internet of Things (IoT) Standards</t>
+  </si>
+  <si>
+    <t>Analizar los riesgos de privacidad asociados con dispositivos portátiles y proponer medidas para mitigar vulnerabilidades.</t>
+  </si>
+  <si>
+    <t>Mourby2019Governance</t>
+  </si>
+  <si>
+    <t>Gobernanza de datos académicos bajo el GDPR: caso del Reino Unido</t>
+  </si>
+  <si>
+    <t>GDPR, Data Protection Act 2018 (Reino Unido)</t>
+  </si>
+  <si>
+    <t>Evaluar cómo las derogaciones del GDPR afectan la gobernanza de datos académicos, centrándose en el Reino Unido como caso de estudio.</t>
+  </si>
+  <si>
+    <t>Educación Superior, Regulación</t>
+  </si>
+  <si>
+    <t>International Data Privacy Law</t>
+  </si>
+  <si>
+    <t>Mrabet2019SecP2I</t>
+  </si>
+  <si>
+    <t>Ciberseguridad y protección de datos en IoT</t>
+  </si>
+  <si>
+    <t>GDPR, ISO/IEC 27001, NIS Directive</t>
+  </si>
+  <si>
+    <t>Proponer un enfoque de seguridad para IoT integrando estándares globales</t>
+  </si>
+  <si>
+    <t>IoT, Seguridad</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on IoT</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Mulder2019Privacy</t>
+  </si>
+  <si>
+    <t>Privacidad de datos en la era de Big Data</t>
+  </si>
+  <si>
+    <t>GDPR, Privacy by Design, ISO/IEC 29100</t>
+  </si>
+  <si>
+    <t>Explorar el impacto de Big Data en la privacidad y proponer enfoques regulatorios</t>
+  </si>
+  <si>
+    <t>Big Data, Tecnología</t>
+  </si>
+  <si>
+    <t>Journal of Data Protection and Privacy</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Mulder2021Exploring</t>
+  </si>
+  <si>
+    <t>Evaluación de impacto de privacidad (PIA) en el GDPR</t>
+  </si>
+  <si>
+    <t>GDPR, ISO/IEC 27701, Directrices del EDPB</t>
+  </si>
+  <si>
+    <t>Explorar la implementación y efectividad de las evaluaciones de impacto de privacidad (PIA)</t>
+  </si>
+  <si>
+    <t>Privacidad y Regulación</t>
+  </si>
+  <si>
+    <t>Regulación</t>
+  </si>
+  <si>
+    <t>Nastasa2024Analysis</t>
+  </si>
+  <si>
+    <t>Multisectorial</t>
+  </si>
+  <si>
+    <t>Newlands2020Innovation</t>
+  </si>
+  <si>
+    <t>Evaluar el impacto de regulaciones globales en la protección de datos personales</t>
+  </si>
+  <si>
+    <t>MAEDICA – a Journal of Clinical Medicine</t>
+  </si>
+  <si>
+    <t>Análisis de regulaciones de privacidad de datos</t>
+  </si>
+  <si>
+    <t>Innovación tecnológica y privacidad de datos</t>
+  </si>
+  <si>
+    <t>Analizar cómo las innovaciones tecnológicas abordan los desafíos de privacidad</t>
+  </si>
+  <si>
+    <t>No mencionado</t>
+  </si>
+  <si>
+    <t>Journal of Innovation and Data Governance</t>
+  </si>
+  <si>
+    <t>Pandit2022Making</t>
+  </si>
+  <si>
+    <t>Mejora de la privacidad en datos de investigación</t>
+  </si>
+  <si>
+    <t>Proponer metodologías para integrar principios éticos y privacidad en datos de investigación</t>
+  </si>
+  <si>
+    <t>Journal of Research Ethics and Data Privacy</t>
+  </si>
+  <si>
+    <t>Pandit2024Enhancing</t>
+  </si>
+  <si>
+    <t>Mejora en la gobernanza de privacidad de datos</t>
+  </si>
+  <si>
+    <t>Proponer mejoras en la privacidad por diseño para gobernanza efectiva de datos personales</t>
+  </si>
+  <si>
+    <t>International Journal of Privacy Research</t>
+  </si>
+  <si>
+    <t>Pandit2024Implementing</t>
+  </si>
+  <si>
+    <t>Implementación de normativas de privacidad de datos</t>
+  </si>
+  <si>
+    <t>Explorar enfoques prácticos para implementar normativas de privacidad en organizaciones</t>
+  </si>
+  <si>
+    <t>Peukert2022Regulatory</t>
+  </si>
+  <si>
+    <t>Análisis de regulación de privacidad en Europa</t>
+  </si>
+  <si>
+    <t>Evaluar la efectividad del GDPR en diferentes sectores</t>
+  </si>
+  <si>
+    <t>European Journal of Data Governance</t>
+  </si>
+  <si>
+    <t>PhillipsUK</t>
+  </si>
+  <si>
+    <t>Informe técnico</t>
+  </si>
+  <si>
+    <t>Prácticas de privacidad en el Reino Unido</t>
+  </si>
+  <si>
+    <t>Analizar las prácticas de privacidad y protección de datos en el Reino Unido</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Piras2020DEFeND</t>
+  </si>
+  <si>
+    <t>Plataforma DEFeND para cumplimiento del GDPR</t>
+  </si>
+  <si>
+    <t>Presentar una plataforma para ayudar a organizaciones a cumplir con el GDPR</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE IoT 2020</t>
+  </si>
+  <si>
+    <t>Podlesny2019Identifying</t>
+  </si>
+  <si>
+    <t>Identificación de riesgos de privacidad en entornos IoT</t>
+  </si>
+  <si>
+    <t>Proponer métodos para identificar y gestionar riesgos de privacidad en dispositivos IoT</t>
+  </si>
+  <si>
+    <t>Proceedings of the IEEE IoT Conference</t>
+  </si>
+  <si>
+    <t>Olimid2018Ethical</t>
+  </si>
+  <si>
+    <t>Consideraciones éticas sobre privacidad de datos</t>
+  </si>
+  <si>
+    <t>Examinar los desafíos éticos asociados a la implementación de normativas como el GDPR</t>
+  </si>
+  <si>
+    <t>Ética y privacidad</t>
+  </si>
+  <si>
+    <t>Ethics and Information Technology</t>
+  </si>
+  <si>
+    <t>Ética en Tecnología</t>
+  </si>
+  <si>
+    <t>Padrao2024Adoption</t>
+  </si>
+  <si>
+    <t>Adopción del GDPR en la administración pública local</t>
+  </si>
+  <si>
+    <t>Evaluar la implementación del GDPR en municipios portugueses</t>
+  </si>
+  <si>
+    <t>Proceedings of WorldCIST 2023</t>
+  </si>
+  <si>
+    <t>Pool2020Health</t>
+  </si>
+  <si>
+    <t>Privacidad de datos en el sector salud</t>
+  </si>
+  <si>
+    <t>Evaluar la protección de datos de salud bajo el cumplimiento del GDPR</t>
+  </si>
+  <si>
+    <t>International Journal of Health Privacy</t>
+  </si>
+  <si>
+    <t>Pool2020Towards</t>
+  </si>
+  <si>
+    <t>Protección de datos personales en entornos digitales</t>
+  </si>
+  <si>
+    <t>Analizar estrategias para mejorar la privacidad en la gestión de datos personales</t>
+  </si>
+  <si>
+    <t>Journal of Digital Privacy Research</t>
+  </si>
+  <si>
+    <t>Quinn2022Difficulty</t>
+  </si>
+  <si>
+    <t>Desafíos en la implementación del GDPR en Europa</t>
+  </si>
+  <si>
+    <t>Evaluar los obstáculos para el cumplimiento del GDPR y proponer soluciones</t>
+  </si>
+  <si>
+    <t>Journal of Privacy Governance</t>
+  </si>
+  <si>
+    <t>Rainey2020Is</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en las políticas públicas</t>
+  </si>
+  <si>
+    <t>Evaluar los efectos del GDPR en el diseño y la ejecución de políticas públicas</t>
+  </si>
+  <si>
+    <t>Rodriguez2020MyVote</t>
+  </si>
+  <si>
+    <t>Rodríguez2024Data</t>
+  </si>
+  <si>
+    <t>Revisión de políticas de privacidad y su impacto en el manejo de datos en Ecuador</t>
+  </si>
+  <si>
+    <t>GDPR, LOPDP</t>
+  </si>
+  <si>
+    <t>Evaluar cómo las políticas de privacidad pueden alinearse con estándares internacionales</t>
+  </si>
+  <si>
+    <t>Journal of Data Privacy Analysis</t>
+  </si>
+  <si>
+    <t>Rodriguez2024Toward</t>
+  </si>
+  <si>
+    <t>Análisis del impacto de medidas de seguridad en datos médicos</t>
+  </si>
+  <si>
+    <t>Guiar a profesionales en la adopción de medidas de seguridad específicas</t>
+  </si>
+  <si>
+    <t>Journal of Biomedical Informatics</t>
+  </si>
+  <si>
+    <t>Salud e investigación</t>
+  </si>
+  <si>
+    <t>Implementación del GDPR en i-voting</t>
+  </si>
+  <si>
+    <t>Analizar implementación del GDPR en i-voting</t>
+  </si>
+  <si>
+    <t>E-Vote-ID 2020, Springer, LNCS 12455, pp. 167–182</t>
+  </si>
+  <si>
+    <t>Ryan2021Building</t>
+  </si>
+  <si>
+    <t>Diseño de sistemas digitales seguros</t>
+  </si>
+  <si>
+    <t>Ruohonen2022GDPR</t>
+  </si>
+  <si>
+    <t>Implementación del GDPR en la UE</t>
+  </si>
+  <si>
+    <t>GDPR, Directrices del EDPB</t>
+  </si>
+  <si>
+    <t>Analizar desafíos y éxitos de la implementación del GDPR en Europa</t>
+  </si>
+  <si>
+    <t>Todos los sectores</t>
+  </si>
+  <si>
+    <t>Revista académica</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Proveer una guía práctica para diseñar sistemas digitales seguros</t>
+  </si>
+  <si>
+    <t>Further with Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>Ryan2022DPCat</t>
+  </si>
+  <si>
+    <t>Categorización de mecanismos de protección de datos</t>
+  </si>
+  <si>
+    <t>Proporcionar una categorización exhaustiva de mecanismos de protección de datos</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Sarabdeen2025Comparative</t>
+  </si>
+  <si>
+    <t>Comparación de regulaciones de privacidad</t>
+  </si>
+  <si>
+    <t>GDPR, otras normativas internacionales</t>
+  </si>
+  <si>
+    <t>Proveer un análisis comparativo de las regulaciones globales</t>
+  </si>
+  <si>
+    <t>International Journal of Law and Management</t>
+  </si>
+  <si>
+    <t>Sassetti2023Assurance</t>
+  </si>
+  <si>
+    <t>Garantía de calidad en sistemas de información</t>
+  </si>
+  <si>
+    <t>Proveer herramientas y estrategias para garantizar la calidad en sistemas seguros</t>
+  </si>
+  <si>
+    <t>IFIP Advances in Information and Communication Technology</t>
+  </si>
+  <si>
+    <t>Scheibner2021Revolutionizing</t>
+  </si>
+  <si>
+    <t>Impacto de tecnologías emergentes en privacidad de datos</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR)</t>
+  </si>
+  <si>
+    <t>Analizar cómo las tecnologías emergentes afectan la implementación del GDPR</t>
+  </si>
+  <si>
+    <t>Salud, Administración Pública</t>
+  </si>
+  <si>
+    <t>Scheibner22022Health</t>
+  </si>
+  <si>
+    <t>Privacidad de datos de salud mediante encriptación homomórfica y tecnología de ledger distribuido</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Federal Act on Data Protection (FADP), Human Research Act (HRA)</t>
+  </si>
+  <si>
+    <t>Evaluar el impacto ético-legal de tecnologías de mejora de la privacidad para datos de salud</t>
+  </si>
+  <si>
+    <t>BMC Medical Ethics</t>
+  </si>
+  <si>
+    <t>Schmelz2021Towards</t>
+  </si>
+  <si>
+    <t>Portabilidad de datos basada en GDPR utilizando tecnología blockchain</t>
+  </si>
+  <si>
+    <t>Proponer una plataforma pública para solicitudes de portabilidad de datos que cumpla con el GDPR</t>
+  </si>
+  <si>
+    <t>E-Government, Gestión de datos personales</t>
+  </si>
+  <si>
+    <t>Blockchain and Applications, Springer</t>
+  </si>
+  <si>
+    <t>E-Government</t>
+  </si>
+  <si>
+    <t>Schnadelbach2019Adaptive</t>
+  </si>
+  <si>
+    <t>Uso de datos personales en arquitectura adaptativa bajo el marco del GDPR</t>
+  </si>
+  <si>
+    <t>Analizar las tensiones éticas, legales y técnicas en la relación entre datos personales y edificios adaptativos</t>
+  </si>
+  <si>
+    <t>Arquitectura, IoT</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Computer-Human Interaction</t>
+  </si>
+  <si>
+    <t>Scope2023Compliance</t>
+  </si>
+  <si>
+    <t>Gestión del ciclo de vida de los datos y cumplimiento normativo en bases de datos</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Health Insurance Portability and Accountability Act (HIPAA)</t>
+  </si>
+  <si>
+    <t>Proponer un marco para gestionar políticas de retención y eliminación de datos en bases de datos relacionales y NoSQL</t>
+  </si>
+  <si>
+    <t>Tecnología, Gestión de datos</t>
+  </si>
+  <si>
+    <t>DEXA Conference, Lecture Notes in Computer Science (LNCS)</t>
+  </si>
+  <si>
+    <t>Scope2024Statistical</t>
+  </si>
+  <si>
+    <t>Privacidad estadística y consentimiento en la agregación de datos</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), California Consumer Privacy Act (CCPA)</t>
+  </si>
+  <si>
+    <t>Proponer un marco para consultas de agregación que garanticen el cumplimiento del consentimiento y la privacidad</t>
+  </si>
+  <si>
+    <t>Tecnología, Bases de datos</t>
+  </si>
+  <si>
+    <t>SSDBM 2024, ACM Digital Library</t>
+  </si>
+  <si>
+    <t>Semantha2023PbDinEHR</t>
+  </si>
+  <si>
+    <t>Privacy by Design aplicado a la gestión de registros electrónicos de salud</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Australian Privacy Principles (APPs)</t>
+  </si>
+  <si>
+    <t>Proponer y evaluar un marco de privacidad basado en diseño para la gestión de registros de salud electrónicos</t>
+  </si>
+  <si>
+    <t>Salud, Gestión de datos</t>
+  </si>
+  <si>
+    <t>Journal of Sensor and Actuator Networks</t>
+  </si>
+  <si>
+    <t>Shabani2018Rules</t>
+  </si>
+  <si>
+    <t>Procesamiento de datos genéticos bajo el GDPR</t>
+  </si>
+  <si>
+    <t>Analizar las disposiciones clave del GDPR para el procesamiento de datos genéticos en investigación</t>
+  </si>
+  <si>
+    <t>European Journal of Human Genetics</t>
+  </si>
+  <si>
+    <t>Shabani2021Data</t>
+  </si>
+  <si>
+    <t>El impacto del Data Governance Act en el intercambio de datos biomédicos</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Data Governance Act (DGA)</t>
+  </si>
+  <si>
+    <t>Analizar cómo el DGA complementa al GDPR para facilitar el intercambio de datos biomédicos</t>
+  </si>
+  <si>
+    <t>Molecular Systems Biology</t>
+  </si>
+  <si>
+    <t>Stalla2018GDPR</t>
+  </si>
+  <si>
+    <t>Análisis del impacto del GDPR en los esquemas de identificación electrónica</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), eIDAS</t>
+  </si>
+  <si>
+    <t>Evaluar la compatibilidad del esquema Gov.UK Verify con las disposiciones clave del GDPR</t>
+  </si>
+  <si>
+    <t>eGovernment, Regulaciones</t>
+  </si>
+  <si>
+    <t>eGovernment</t>
+  </si>
+  <si>
+    <t>Suder2020Processing</t>
+  </si>
+  <si>
+    <t>Procesamiento de datos personales de empleados durante la pandemia de Covid-19</t>
+  </si>
+  <si>
+    <t>Analizar los desafíos de los empleadores en el procesamiento de datos de empleados bajo el GDPR en el contexto de Covid-19</t>
+  </si>
+  <si>
+    <t>Trabajo y Salud Ocupacional</t>
+  </si>
+  <si>
+    <t>European Labour Law Journal</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Sullivan2019EU</t>
+  </si>
+  <si>
+    <t>Comparativa entre GDPR y APEC CBPR para transferencias de datos transfronterizos en IoT</t>
+  </si>
+  <si>
+    <t>GDPR, APEC CBPR</t>
+  </si>
+  <si>
+    <t>Analizar las diferencias y similitudes entre GDPR y APEC CBPR en el contexto de datos IoT</t>
+  </si>
+  <si>
+    <t>IoT, Protección de datos</t>
+  </si>
+  <si>
+    <t>Sun2023Citizen</t>
+  </si>
+  <si>
+    <t>Plataforma centrada en el ciudadano (TIDAL) para compartir datos de salud en forma privada</t>
+  </si>
+  <si>
+    <t>Proponer y evaluar una plataforma para compartir datos personales de salud de forma controlada y descentralizada</t>
+  </si>
+  <si>
+    <t>Semantic Web</t>
+  </si>
+  <si>
+    <t>Suraci2022Next</t>
+  </si>
+  <si>
+    <t>Avances multidisciplinarios en eHealth, incluyendo IA, 6G, electromagnetismo y GDPR</t>
+  </si>
+  <si>
+    <t>Proveer una revisión multidisciplinaria de herramientas tecnológicas y regulatorias para eHealth</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>Tauqeer2024GDPR</t>
+  </si>
+  <si>
+    <t>Herramienta de verificación de cumplimiento de contratos de intercambio de datos bajo GDPR</t>
+  </si>
+  <si>
+    <t>Proponer una herramienta escalable y automatizada para verificar el cumplimiento de contratos bajo GDPR</t>
+  </si>
+  <si>
+    <t>Investigación, Smart Cities</t>
+  </si>
+  <si>
+    <t>Software Impacts</t>
+  </si>
+  <si>
+    <t>Tschider2024New</t>
+  </si>
+  <si>
+    <t>Impacto del nuevo marco de protección de datos EU-US en el sector salud y la investigación</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Data Privacy Framework (DPF)</t>
+  </si>
+  <si>
+    <t>Analizar cómo el nuevo Data Privacy Framework afecta las transferencias de datos en salud entre EU y US</t>
+  </si>
+  <si>
+    <t>Tsekoura2020GDPR</t>
+  </si>
+  <si>
+    <t>Revisión crítica de los aspectos prácticos, éticos y constitucionales del GDPR un año después de su implementación</t>
+  </si>
+  <si>
+    <t>Examinar las implicaciones prácticas, éticas y legales del GDPR para los sectores público y privado</t>
+  </si>
+  <si>
+    <t>Público, Privado, Derechos Humanos</t>
+  </si>
+  <si>
+    <t>International Journal of Human Rights and Constitutional Studies</t>
+  </si>
+  <si>
+    <t>Público, Privado</t>
+  </si>
+  <si>
+    <t>Tsohou2020Privacy</t>
+  </si>
+  <si>
+    <t>Requisitos funcionales, legales y de aceptación para una plataforma de cumplimiento GDPR</t>
+  </si>
+  <si>
+    <t>Proponer y evaluar una plataforma (DEFeND) para facilitar el cumplimiento del GDPR, incluyendo Privacy by Design</t>
+  </si>
+  <si>
+    <t>Salud, Finanzas, Energía, Administración Pública</t>
+  </si>
+  <si>
+    <t>ESORICS 2019 Workshops (Springer)</t>
+  </si>
+  <si>
+    <t>Tsohou2020PSLTAE</t>
+  </si>
+  <si>
+    <t>Requisitos de privacidad, seguridad y aceptación tecnológica para una plataforma de cumplimiento GDPR</t>
+  </si>
+  <si>
+    <t>Describir el proceso de análisis y consolidación de requisitos para una plataforma de cumplimiento del GDPR</t>
+  </si>
+  <si>
+    <t>Finanzas, Salud, Energía, Administración Pública</t>
+  </si>
+  <si>
+    <t>Information &amp; Computer Security (Emerald)</t>
+  </si>
+  <si>
+    <t>Tzanou2023Health</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Retos y respuestas regulatorias de la privacidad de datos de salud bajo el GDPR</t>
+  </si>
+  <si>
+    <t>Explorar cómo el GDPR aborda los desafíos de los datos masivos de salud y las nuevas tecnologías</t>
+  </si>
+  <si>
+    <t>Salud, Big Data, Derechos Humanos</t>
+  </si>
+  <si>
+    <t>Routledge Research in the Law of Emerging Technologies</t>
+  </si>
+  <si>
+    <t>Vazao2023implementing</t>
+  </si>
+  <si>
+    <t>Implementación y evaluación de una solución SIEM open-source compatible con GDPR</t>
+  </si>
+  <si>
+    <t>Diseñar y validar un SIEM open-source que garantice la privacidad de datos en conformidad con GDPR</t>
+  </si>
+  <si>
+    <t>Seguridad, Tecnologías</t>
+  </si>
+  <si>
+    <t>Journal of Information Security and Applications</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Vojkovic20118Will</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en el desarrollo de las ciudades inteligentes</t>
+  </si>
+  <si>
+    <t>Evaluar si las disposiciones del GDPR podrían ralentizar o afectar el desarrollo de ciudades inteligentes</t>
+  </si>
+  <si>
+    <t>Ciudades inteligentes</t>
+  </si>
+  <si>
+    <t>MIPRO Conference</t>
+  </si>
+  <si>
+    <t>Vukovic2022Enablers</t>
+  </si>
+  <si>
+    <t>Facilitadores y barreras del uso secundario de datos de salud en Europa desde la perspectiva del GDPR</t>
+  </si>
+  <si>
+    <t>Analizar las ventajas y desafíos del GDPR para el uso secundario de datos de salud, incluyendo un estudio de caso en Austria</t>
+  </si>
+  <si>
+    <t>Archives of Public Health</t>
+  </si>
+  <si>
+    <t>Wiertz2019EEthical</t>
+  </si>
+  <si>
+    <t>Modelos de consentimiento informados y sus desafíos éticos, legales y prácticos</t>
+  </si>
+  <si>
+    <t>Analizar las perspectivas de los stakeholders sobre los modelos de consentimiento para datos de salud</t>
+  </si>
+  <si>
+    <t>Wirth2024OHDSI</t>
+  </si>
+  <si>
+    <t>Plantillas para facilitar la implementación de OHDSI-compliance en entornos médicos</t>
+  </si>
+  <si>
+    <t>Proveer un conjunto de plantillas documentales para cumplir con los requerimientos de protección de datos y seguridad</t>
+  </si>
+  <si>
+    <t>Frontiers in Medicine</t>
+  </si>
+  <si>
+    <t>Yuan2019Digital</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en el desempeño financiero de hospitales con servicios de salud digital en la UE</t>
+  </si>
+  <si>
+    <t>Evaluar la efectividad del GDPR para la protección de datos de salud mediante análisis empírico del desempeño financiero de hospitales</t>
+  </si>
+  <si>
+    <t>Salud, TIC</t>
+  </si>
+  <si>
+    <t>Zhang2020Online</t>
+  </si>
+  <si>
+    <t>Factores que afectan la confianza del cliente en línea en el contexto del GDPR</t>
+  </si>
+  <si>
+    <t>Examinar los antecedentes de la confianza del cliente en línea y los efectos del GDPR sobre dicha confianza</t>
+  </si>
+  <si>
+    <t>E-commerce, TIC</t>
+  </si>
+  <si>
+    <t>Pacific Asia Journal of the Association for Information Systems</t>
+  </si>
+  <si>
+    <t>Comercio Electrónico</t>
+  </si>
+  <si>
+    <t>Zichichi2022Data</t>
+  </si>
+  <si>
+    <t>Gobernanza de datos mediante una arquitectura basada en múltiples DLT</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), Data Governance Act (UE)</t>
+  </si>
+  <si>
+    <t>Proponer una arquitectura descentralizada para la gestión de datos personales con tecnologías DLT y almacenamiento descentralizado</t>
+  </si>
+  <si>
+    <t>Cluster Computing</t>
+  </si>
+  <si>
+    <t>Zoonen2020Data</t>
+  </si>
+  <si>
+    <t>Gobernanza de datos y participación ciudadana en el estado de bienestar digital</t>
+  </si>
+  <si>
+    <t>Evaluar los desafíos éticos y legales de las políticas sociales basadas en datos y proponer alternativas democráticas</t>
+  </si>
+  <si>
+    <t>Políticas Sociales</t>
+  </si>
+  <si>
+    <t>Data &amp; Policy</t>
+  </si>
+  <si>
+    <t>Políticas Públicas</t>
+  </si>
+  <si>
+    <t>Raisaro2019MedCo</t>
+  </si>
+  <si>
+    <t>MedCo: Plataforma para el intercambio seguro y preservación de la privacidad en datos clínicos y genómicos distribuidos</t>
+  </si>
+  <si>
+    <t>Proporcionar una arquitectura híbrida para compartir datos clínicos y genómicos con garantías de privacidad y seguridad</t>
+  </si>
+  <si>
+    <t>Salud, Genómica</t>
+  </si>
+  <si>
+    <t>IEEE/ACM Transactions on Computational Biology and Bioinformatics</t>
+  </si>
+  <si>
+    <t>Quinn2024Will</t>
+  </si>
+  <si>
+    <t>Impacto del GDPR en el acceso a datos de salud bajo el marco del Espacio Europeo de Datos de Salud</t>
+  </si>
+  <si>
+    <t>General Data Protection Regulation (GDPR), EHDS Proposal, Data Governance Act</t>
+  </si>
+  <si>
+    <t>Analizar las implicaciones legales del EHDS sobre la privacidad y acceso a datos en el ámbito de la salud</t>
   </si>
 </sst>
 </file>
@@ -1321,11 +2947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C843FC5-5862-4DB5-AE22-EAB0A5E91C30}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,7 +3471,7 @@
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" ref="A14:A21" si="1">A13+1</f>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1884,7 +3510,7 @@
     </row>
     <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1923,7 +3549,7 @@
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1962,7 +3588,7 @@
     </row>
     <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2001,7 +3627,7 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2040,7 +3666,7 @@
     </row>
     <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2079,7 +3705,7 @@
     </row>
     <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2118,7 +3744,7 @@
     </row>
     <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2157,7 +3783,7 @@
     </row>
     <row r="22" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" ref="A22:A40" si="1">A21+1</f>
+        <f t="shared" ref="A22:A40" si="2">A21+1</f>
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2196,7 +3822,7 @@
     </row>
     <row r="23" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2235,7 +3861,7 @@
     </row>
     <row r="24" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2274,7 +3900,7 @@
     </row>
     <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2313,7 +3939,7 @@
     </row>
     <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2352,7 +3978,7 @@
     </row>
     <row r="27" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2391,7 +4017,7 @@
     </row>
     <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2430,7 +4056,7 @@
     </row>
     <row r="29" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2469,7 +4095,7 @@
     </row>
     <row r="30" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2508,7 +4134,7 @@
     </row>
     <row r="31" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2547,7 +4173,7 @@
     </row>
     <row r="32" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2586,7 +4212,7 @@
     </row>
     <row r="33" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2625,7 +4251,7 @@
     </row>
     <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2664,7 +4290,7 @@
     </row>
     <row r="35" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2703,7 +4329,7 @@
     </row>
     <row r="36" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2742,7 +4368,7 @@
     </row>
     <row r="37" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2781,7 +4407,7 @@
     </row>
     <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2820,7 +4446,7 @@
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2859,7 +4485,7 @@
     </row>
     <row r="40" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2898,7 +4524,7 @@
     </row>
     <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <f>A40+1</f>
+        <f t="shared" ref="A41:A49" si="3">A40+1</f>
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2937,7 +4563,7 @@
     </row>
     <row r="42" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <f>A41+1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2976,7 +4602,7 @@
     </row>
     <row r="43" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <f>A42+1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3015,7 +4641,7 @@
     </row>
     <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <f>A43+1</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3054,7 +4680,7 @@
     </row>
     <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <f>A44+1</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3093,7 +4719,7 @@
     </row>
     <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <f>A45+1</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3132,7 +4758,7 @@
     </row>
     <row r="47" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <f>A46+1</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3171,7 +4797,7 @@
     </row>
     <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <f>A47+1</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3210,7 +4836,7 @@
     </row>
     <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <f>A48+1</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3249,7 +4875,7 @@
     </row>
     <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <f t="shared" ref="A50:A55" si="2">A49+1</f>
+        <f t="shared" ref="A50:A53" si="4">A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3286,520 +4912,4255 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>289</v>
+        <v>429</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>292</v>
+        <v>434</v>
       </c>
       <c r="J51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="L51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J52" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L52" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" s="3">
+        <v>5</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <f t="shared" si="2"/>
+        <f>A53+1</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <f t="shared" si="2"/>
+        <f>A54+1</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J55" s="3">
+        <v>5</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <f t="shared" ref="A56:A59" si="5">A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" s="3">
+        <v>5</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="L56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <f>A55+1</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J58" s="4">
+        <v>5</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L58" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <f>A57+1</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="4">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <f>A59+1</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J60" s="4">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <f>A59+1</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <f>A60+1</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J61" s="4">
+        <v>5</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L61" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <f>A61+1</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J62" s="4">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <f>A61+1</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A62+1</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J63" s="4">
+        <v>5</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <f>A63+1</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <f>A63+1</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A64+1</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="4">
+        <v>5</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <f>A65+1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J66" s="4">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <f>A65+1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J67" s="4">
+        <v>5</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L67" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <f>A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J68" s="4">
+        <v>5</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <f>A67+1</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" s="4">
+        <v>5</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <f>A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" s="4">
+        <v>5</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L70" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <f>A69+1</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A70+1</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2009</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J71" s="4">
+        <v>5</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="L71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <f>A71+1</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="4">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <f>A71+1</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A72+1</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J73" s="4">
+        <v>5</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <f>A73+1</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" s="3">
+        <v>5</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <f>A73+1</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A74+1</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J75" s="3">
+        <v>5</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <f>A75+1</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L76" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <f>A75+1</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A76+1</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L77" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <f>A77+1</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J78" s="3">
+        <v>5</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <f>A77+1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A78+1</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J79" s="3">
+        <v>5</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L79" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <f>A79+1</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J80" s="3">
+        <v>5</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L80" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <f>A79+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A80+1</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L81" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <f t="shared" ref="A82:A88" si="6">A81+1</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J82" s="3">
+        <v>5</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="L82" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <f>A81+1</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="J84" s="3">
+        <v>5</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L84" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <f>A83+1</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J85" s="3">
+        <v>5</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="L85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J86" s="3">
+        <v>5</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L86" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <f>A85+1</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J87" s="3">
+        <v>5</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="L87" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J88" s="3">
+        <v>5</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L88" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <f>A87+1</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A88+1</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="L89" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <f>A89+1</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J90" s="3">
+        <v>5</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="L90" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <f>A89+1</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A90+1</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J91" s="3">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L91" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <f>A91+1</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="J92" s="3">
+        <v>5</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L92" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <f>A91+1</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A92+1</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="J93" s="3">
+        <v>5</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="L93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <f>A93+1</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L94" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <f>A93+1</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A94+1</f>
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="J95" s="3">
+        <v>5</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L95" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <f>A95+1</f>
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J96" s="3">
+        <v>5</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L96" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <f>A95+1</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A96+1</f>
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J97" s="3">
+        <v>5</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L97" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <f>A97+1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J98" s="3">
+        <v>5</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="L98" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <f>A97+1</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A98+1</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J99" s="3">
+        <v>5</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="L99" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <f>A99+1</f>
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L100" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <f>A99+1</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A100+1</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="L101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <f>A101+1</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="L102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <f>A101+1</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A102+1</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="J103" s="3">
+        <v>5</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L103" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <f>A103+1</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J104" s="3">
+        <v>5</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="L104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <f>A103+1</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A104+1</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J105" s="3">
+        <v>5</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="L105" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <f>A105+1</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J106" s="3">
+        <v>5</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L106" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <f>A105+1</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A106+1</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="J107" s="3">
+        <v>5</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="L107" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <f t="shared" ref="A108:A127" si="7">A107+1</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="J108" s="3">
+        <v>5</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="L108" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <f>A107+1</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J109" s="3">
+        <v>5</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L109" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J110" s="3">
+        <v>5</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L110" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <f>A109+1</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L111" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <f t="shared" si="7"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="J112" s="3">
+        <v>5</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L112" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <f>A111+1</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J113" s="3">
+        <v>5</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L113" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="J114" s="3">
+        <v>4</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <f>A113+1</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="J115" s="3">
+        <v>5</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L115" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="J116" s="3">
+        <v>5</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L116" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <f>A115+1</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="J117" s="3">
+        <v>5</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L117" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J118" s="3">
+        <v>5</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L118" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <f>A117+1</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J119" s="3">
+        <v>5</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J120" s="3">
+        <v>5</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="L120" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <f>A119+1</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J121" s="3">
+        <v>5</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L121" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <f t="shared" si="7"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="J122" s="3">
+        <v>5</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="L122" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <f>A121+1</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="J123" s="3">
+        <v>5</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L123" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <f t="shared" si="7"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="J124" s="3">
+        <v>5</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L124" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <f>A123+1</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="J125" s="3">
+        <v>5</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <f t="shared" si="7"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="J126" s="3">
+        <v>5</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="L126" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <f>A125+1</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J127" s="3">
+        <v>5</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <f>A127+1</f>
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J128" s="3">
+        <v>5</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L128" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <f>A127+1</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A128+1</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2025</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="J129" s="3">
+        <v>5</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L129" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <f>A129+1</f>
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J130" s="3">
+        <v>5</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <f>A129+1</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A130+1</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J131" s="3">
+        <v>5</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="L131" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <f>A131+1</f>
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J132" s="3">
+        <v>5</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L132" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <f>A131+1</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A132+1</f>
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="J133" s="3">
+        <v>5</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="L133" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <f>A133+1</f>
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="J134" s="3">
+        <v>5</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="L134" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <f>A133+1</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A134+1</f>
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="J135" s="3">
+        <v>5</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <f>A135+1</f>
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="J136" s="3">
+        <v>5</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <f>A135+1</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A136+1</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="J137" s="3">
+        <v>5</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L137" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <f>A137+1</f>
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="J138" s="3">
+        <v>5</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L138" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <f>A137+1</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A138+1</f>
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2021</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="J139" s="3">
+        <v>5</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L139" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <f>A139+1</f>
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J140" s="3">
+        <v>5</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="L140" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <f>A139+1</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A140+1</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="J141" s="3">
+        <v>5</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="L141" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <f>A141+1</f>
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J142" s="3">
+        <v>5</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="L142" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <f>A141+1</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A142+1</f>
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="J143" s="3">
+        <v>5</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L143" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <f>A143+1</f>
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="J144" s="3">
+        <v>5</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <f>A143+1</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A144+1</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="J145" s="3">
+        <v>5</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L145" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <f>A145+1</f>
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J146" s="3">
+        <v>5</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L146" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <f>A145+1</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A146+1</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="J147" s="3">
+        <v>5</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="L147" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <f>A147+1</f>
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="J148" s="3">
+        <v>5</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L148" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <f>A147+1</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A148+1</f>
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="J149" s="3">
+        <v>5</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="L149" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <f>A149+1</f>
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J150" s="3">
+        <v>5</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L150" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <f>A149+1</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A150+1</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J151" s="3">
+        <v>5</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="L151" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <f>A151+1</f>
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="J152" s="3">
+        <v>5</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="L152" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <f>A151+1</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A152+1</f>
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="J153" s="3">
+        <v>5</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L153" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <f>A153+1</f>
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J154" s="3">
+        <v>5</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L154" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <f>A153+1</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A154+1</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2024</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J155" s="3">
+        <v>5</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L155" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <f>A155+1</f>
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J156" s="3">
+        <v>5</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L156" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <f>A155+1</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+        <f>A156+1</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="J157" s="3">
+        <v>5</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="L157" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <f>A157+1</f>
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2022</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="J158" s="3">
+        <v>5</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L158" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <f>A157+1</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
-        <f>A159+1</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
-        <f>A161+1</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
-        <f>A163+1</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
-        <f>A165+1</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
-        <f>A167+1</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
-        <f>A169+1</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
-        <f>A171+1</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4">
-        <f>A173+1</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4">
-        <f>A175+1</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4">
-        <f>A177+1</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
-        <f>A179+1</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
-        <f>A181+1</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
-        <f t="shared" ref="A185:A195" si="3">A183+1</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
-        <f t="shared" si="3"/>
-        <v>124</v>
+        <f>A158+1</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="J159" s="3">
+        <v>5</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="L159" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Evaluacion_Documentos.xlsx
+++ b/Resultados/Evaluacion_Documentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\DataPrivacy\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA94571-D0CE-4AB5-8603-8A064B508402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CDCD1-61EB-46C3-A985-A2C0E513CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A8DA742-609F-4DE4-93DE-378A477D6C5B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="1304">
   <si>
     <t>Ref</t>
   </si>
@@ -2599,9 +2599,6 @@
   </si>
   <si>
     <t>Alic2023Privacy</t>
-  </si>
-  <si>
-    <t>lo de Conferencia</t>
   </si>
   <si>
     <t>Informatividad del Aviso de Privacidad</t>
@@ -4479,9 +4476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C843FC5-5862-4DB5-AE22-EAB0A5E91C30}">
   <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="13.8"/>
@@ -4492,7 +4489,9 @@
     <col min="4" max="4" width="11.59765625" style="4"/>
     <col min="5" max="5" width="22.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="27" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="11.59765625" style="4"/>
+    <col min="8" max="11" width="11.59765625" style="4"/>
+    <col min="12" max="12" width="11.59765625" style="1"/>
+    <col min="13" max="16384" width="11.59765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.6">
@@ -4879,7 +4878,7 @@
       <c r="K10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>5</v>
       </c>
     </row>
@@ -4918,7 +4917,7 @@
       <c r="K11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>5</v>
       </c>
     </row>
@@ -4957,7 +4956,7 @@
       <c r="K12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>5</v>
       </c>
     </row>
@@ -4996,7 +4995,7 @@
       <c r="K13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5035,7 +5034,7 @@
       <c r="K14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5074,7 +5073,7 @@
       <c r="K15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5113,7 +5112,7 @@
       <c r="K16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5152,7 +5151,7 @@
       <c r="K17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5191,7 +5190,7 @@
       <c r="K18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5230,7 +5229,7 @@
       <c r="K19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5269,7 +5268,7 @@
       <c r="K20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5308,7 +5307,7 @@
       <c r="K21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5347,7 +5346,7 @@
       <c r="K22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5386,7 +5385,7 @@
       <c r="K23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5425,7 +5424,7 @@
       <c r="K24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5464,7 +5463,7 @@
       <c r="K25" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5503,7 +5502,7 @@
       <c r="K26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5542,7 +5541,7 @@
       <c r="K27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5581,7 +5580,7 @@
       <c r="K28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5620,7 +5619,7 @@
       <c r="K29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5659,7 +5658,7 @@
       <c r="K30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5698,7 +5697,7 @@
       <c r="K31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5737,7 +5736,7 @@
       <c r="K32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5776,7 +5775,7 @@
       <c r="K33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5815,7 +5814,7 @@
       <c r="K34" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5854,7 +5853,7 @@
       <c r="K35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5893,7 +5892,7 @@
       <c r="K36" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5932,7 +5931,7 @@
       <c r="K37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5971,7 +5970,7 @@
       <c r="K38" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6010,7 +6009,7 @@
       <c r="K39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6049,7 +6048,7 @@
       <c r="K40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6088,7 +6087,7 @@
       <c r="K41" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6127,7 +6126,7 @@
       <c r="K42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6166,7 +6165,7 @@
       <c r="K43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6205,7 +6204,7 @@
       <c r="K44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6244,7 +6243,7 @@
       <c r="K45" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6283,7 +6282,7 @@
       <c r="K46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6322,7 +6321,7 @@
       <c r="K47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6361,7 +6360,7 @@
       <c r="K48" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6400,7 +6399,7 @@
       <c r="K49" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6439,7 +6438,7 @@
       <c r="K50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6478,7 +6477,7 @@
       <c r="K51" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6517,7 +6516,7 @@
       <c r="K52" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6556,7 +6555,7 @@
       <c r="K53" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6595,7 +6594,7 @@
       <c r="K54" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6634,7 +6633,7 @@
       <c r="K55" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6673,7 +6672,7 @@
       <c r="K56" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6712,7 +6711,7 @@
       <c r="K57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6751,7 +6750,7 @@
       <c r="K58" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L58" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6790,7 +6789,7 @@
       <c r="K59" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L59" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6829,7 +6828,7 @@
       <c r="K60" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L60" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6868,7 +6867,7 @@
       <c r="K61" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L61" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6907,7 +6906,7 @@
       <c r="K62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6946,7 +6945,7 @@
       <c r="K63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L63" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6985,7 +6984,7 @@
       <c r="K64" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7024,7 +7023,7 @@
       <c r="K65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7063,7 +7062,7 @@
       <c r="K66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L66" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7102,7 +7101,7 @@
       <c r="K67" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7141,7 +7140,7 @@
       <c r="K68" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L68" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7180,7 +7179,7 @@
       <c r="K69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L69" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7219,7 +7218,7 @@
       <c r="K70" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L70" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7258,7 +7257,7 @@
       <c r="K71" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L71" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7297,7 +7296,7 @@
       <c r="K72" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7336,7 +7335,7 @@
       <c r="K73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L73" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7375,7 +7374,7 @@
       <c r="K74" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7414,7 +7413,7 @@
       <c r="K75" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7453,7 +7452,7 @@
       <c r="K76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7492,7 +7491,7 @@
       <c r="K77" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7531,7 +7530,7 @@
       <c r="K78" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7570,7 +7569,7 @@
       <c r="K79" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7609,7 +7608,7 @@
       <c r="K80" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7648,7 +7647,7 @@
       <c r="K81" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7687,7 +7686,7 @@
       <c r="K82" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7726,7 +7725,7 @@
       <c r="K83" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7765,7 +7764,7 @@
       <c r="K84" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7804,7 +7803,7 @@
       <c r="K85" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7843,7 +7842,7 @@
       <c r="K86" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7882,7 +7881,7 @@
       <c r="K87" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7921,7 +7920,7 @@
       <c r="K88" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7960,7 +7959,7 @@
       <c r="K89" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7999,7 +7998,7 @@
       <c r="K90" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8038,7 +8037,7 @@
       <c r="K91" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8077,7 +8076,7 @@
       <c r="K92" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8116,7 +8115,7 @@
       <c r="K93" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8155,7 +8154,7 @@
       <c r="K94" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8194,7 +8193,7 @@
       <c r="K95" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8233,7 +8232,7 @@
       <c r="K96" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8272,7 +8271,7 @@
       <c r="K97" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8311,7 +8310,7 @@
       <c r="K98" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8350,7 +8349,7 @@
       <c r="K99" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8389,7 +8388,7 @@
       <c r="K100" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8428,7 +8427,7 @@
       <c r="K101" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8467,7 +8466,7 @@
       <c r="K102" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8506,7 +8505,7 @@
       <c r="K103" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8545,7 +8544,7 @@
       <c r="K104" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8584,7 +8583,7 @@
       <c r="K105" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8623,7 +8622,7 @@
       <c r="K106" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8662,7 +8661,7 @@
       <c r="K107" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8701,7 +8700,7 @@
       <c r="K108" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8740,7 +8739,7 @@
       <c r="K109" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8779,7 +8778,7 @@
       <c r="K110" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8818,7 +8817,7 @@
       <c r="K111" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8857,7 +8856,7 @@
       <c r="K112" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8896,7 +8895,7 @@
       <c r="K113" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L113" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8935,7 +8934,7 @@
       <c r="K114" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8974,7 +8973,7 @@
       <c r="K115" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9013,7 +9012,7 @@
       <c r="K116" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9052,7 +9051,7 @@
       <c r="K117" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9091,7 +9090,7 @@
       <c r="K118" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L118" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9130,7 +9129,7 @@
       <c r="K119" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L119" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9169,7 +9168,7 @@
       <c r="K120" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L120" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9208,7 +9207,7 @@
       <c r="K121" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L121" s="3">
+      <c r="L121" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9247,7 +9246,7 @@
       <c r="K122" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L122" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9286,7 +9285,7 @@
       <c r="K123" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L123" s="3">
+      <c r="L123" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9325,7 +9324,7 @@
       <c r="K124" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L124" s="3">
+      <c r="L124" s="1">
         <v>4</v>
       </c>
     </row>
@@ -9364,7 +9363,7 @@
       <c r="K125" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L125" s="3">
+      <c r="L125" s="1">
         <v>4</v>
       </c>
     </row>
@@ -9403,7 +9402,7 @@
       <c r="K126" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="L126" s="3">
+      <c r="L126" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9442,7 +9441,7 @@
       <c r="K127" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L127" s="3">
+      <c r="L127" s="1">
         <v>4</v>
       </c>
     </row>
@@ -9481,7 +9480,7 @@
       <c r="K128" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L128" s="3">
+      <c r="L128" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9520,7 +9519,7 @@
       <c r="K129" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L129" s="3">
+      <c r="L129" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9559,7 +9558,7 @@
       <c r="K130" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L130" s="3">
+      <c r="L130" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9598,7 +9597,7 @@
       <c r="K131" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="L131" s="3">
+      <c r="L131" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9637,7 +9636,7 @@
       <c r="K132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L132" s="3">
+      <c r="L132" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9676,7 +9675,7 @@
       <c r="K133" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="L133" s="3">
+      <c r="L133" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9715,7 +9714,7 @@
       <c r="K134" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="L134" s="3">
+      <c r="L134" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9754,7 +9753,7 @@
       <c r="K135" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L135" s="3">
+      <c r="L135" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9793,7 +9792,7 @@
       <c r="K136" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L136" s="3">
+      <c r="L136" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9832,7 +9831,7 @@
       <c r="K137" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L137" s="3">
+      <c r="L137" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9871,7 +9870,7 @@
       <c r="K138" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L138" s="3">
+      <c r="L138" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9910,7 +9909,7 @@
       <c r="K139" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L139" s="3">
+      <c r="L139" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9949,7 +9948,7 @@
       <c r="K140" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="L140" s="3">
+      <c r="L140" s="1">
         <v>5</v>
       </c>
     </row>
@@ -9988,7 +9987,7 @@
       <c r="K141" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="L141" s="3">
+      <c r="L141" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10027,7 +10026,7 @@
       <c r="K142" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="L142" s="3">
+      <c r="L142" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10066,7 +10065,7 @@
       <c r="K143" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L143" s="3">
+      <c r="L143" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10105,7 +10104,7 @@
       <c r="K144" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L144" s="3">
+      <c r="L144" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10144,7 +10143,7 @@
       <c r="K145" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L145" s="3">
+      <c r="L145" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10183,7 +10182,7 @@
       <c r="K146" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="L146" s="3">
+      <c r="L146" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10222,7 +10221,7 @@
       <c r="K147" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="L147" s="3">
+      <c r="L147" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10261,7 +10260,7 @@
       <c r="K148" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L148" s="3">
+      <c r="L148" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10300,7 +10299,7 @@
       <c r="K149" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="L149" s="3">
+      <c r="L149" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10339,7 +10338,7 @@
       <c r="K150" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L150" s="3">
+      <c r="L150" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10378,7 +10377,7 @@
       <c r="K151" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="L151" s="3">
+      <c r="L151" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10417,7 +10416,7 @@
       <c r="K152" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="L152" s="3">
+      <c r="L152" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10429,8 +10428,8 @@
       <c r="B153" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>11</v>
+      <c r="C153" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D153" s="3">
         <v>2022</v>
@@ -10456,7 +10455,7 @@
       <c r="K153" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L153" s="3">
+      <c r="L153" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10495,7 +10494,7 @@
       <c r="K154" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L154" s="3">
+      <c r="L154" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10534,7 +10533,7 @@
       <c r="K155" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L155" s="3">
+      <c r="L155" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10573,7 +10572,7 @@
       <c r="K156" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L156" s="3">
+      <c r="L156" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10612,7 +10611,7 @@
       <c r="K157" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="L157" s="3">
+      <c r="L157" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10651,7 +10650,7 @@
       <c r="K158" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L158" s="3">
+      <c r="L158" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10690,7 +10689,7 @@
       <c r="K159" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="L159" s="3">
+      <c r="L159" s="1">
         <v>5</v>
       </c>
     </row>
@@ -10792,26 +10791,26 @@
       <c r="B163" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>855</v>
+      <c r="C163" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D163" s="19">
         <v>2023</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F163" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G163" s="19" t="s">
+        <v>856</v>
+      </c>
+      <c r="H163" s="19" t="s">
         <v>857</v>
       </c>
-      <c r="H163" s="19" t="s">
+      <c r="I163" s="19" t="s">
         <v>858</v>
-      </c>
-      <c r="I163" s="19" t="s">
-        <v>859</v>
       </c>
       <c r="J163" s="19">
         <v>4</v>
@@ -10822,28 +10821,28 @@
     </row>
     <row r="164" spans="2:11" ht="51.6" thickBot="1">
       <c r="B164" s="21" t="s">
-        <v>860</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D164" s="19">
         <v>2022</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F164" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G164" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="H164" s="19" t="s">
         <v>863</v>
       </c>
-      <c r="H164" s="19" t="s">
+      <c r="I164" s="19" t="s">
         <v>864</v>
-      </c>
-      <c r="I164" s="19" t="s">
-        <v>865</v>
       </c>
       <c r="J164" s="19">
         <v>4</v>
@@ -10854,7 +10853,7 @@
     </row>
     <row r="165" spans="2:11" ht="51.6" thickBot="1">
       <c r="B165" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>135</v>
@@ -10863,13 +10862,13 @@
         <v>2022</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F165" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H165" s="19" t="s">
         <v>133</v>
@@ -10886,7 +10885,7 @@
     </row>
     <row r="166" spans="2:11" ht="51.6" thickBot="1">
       <c r="B166" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>135</v>
@@ -10895,13 +10894,13 @@
         <v>2021</v>
       </c>
       <c r="E166" s="19" t="s">
+        <v>869</v>
+      </c>
+      <c r="F166" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="F166" s="19" t="s">
+      <c r="G166" s="19" t="s">
         <v>871</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>872</v>
       </c>
       <c r="H166" s="19" t="s">
         <v>133</v>
@@ -10927,19 +10926,19 @@
         <v>2023</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F167" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G167" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="H167" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="H167" s="19" t="s">
+      <c r="I167" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="I167" s="19" t="s">
-        <v>876</v>
       </c>
       <c r="J167" s="20">
         <v>5</v>
@@ -10950,7 +10949,7 @@
     </row>
     <row r="168" spans="2:11" ht="41.4" thickBot="1">
       <c r="B168" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>851</v>
@@ -10959,16 +10958,16 @@
         <v>2022</v>
       </c>
       <c r="E168" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="F168" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="F168" s="19" t="s">
+      <c r="G168" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="G168" s="19" t="s">
+      <c r="H168" s="19" t="s">
         <v>880</v>
-      </c>
-      <c r="H168" s="19" t="s">
-        <v>881</v>
       </c>
       <c r="I168" s="19" t="s">
         <v>845</v>
@@ -10982,7 +10981,7 @@
     </row>
     <row r="169" spans="2:11" ht="31.2" thickBot="1">
       <c r="B169" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>18</v>
@@ -10991,16 +10990,16 @@
         <v>2022</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F169" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="H169" s="19" t="s">
         <v>884</v>
-      </c>
-      <c r="H169" s="19" t="s">
-        <v>885</v>
       </c>
       <c r="I169" s="19" t="s">
         <v>845</v>
@@ -11014,7 +11013,7 @@
     </row>
     <row r="170" spans="2:11" ht="31.2" thickBot="1">
       <c r="B170" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>135</v>
@@ -11023,19 +11022,19 @@
         <v>2019</v>
       </c>
       <c r="E170" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="G170" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="G170" s="8" t="s">
+      <c r="H170" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="H170" s="8" t="s">
+      <c r="I170" s="8" t="s">
         <v>890</v>
-      </c>
-      <c r="I170" s="8" t="s">
-        <v>891</v>
       </c>
       <c r="J170" s="8">
         <v>5</v>
@@ -11046,25 +11045,25 @@
     </row>
     <row r="171" spans="2:11" ht="41.4" thickBot="1">
       <c r="B171" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>892</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>893</v>
       </c>
       <c r="D171" s="8">
         <v>2022</v>
       </c>
       <c r="E171" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="G171" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="G171" s="8" t="s">
+      <c r="H171" s="8" t="s">
         <v>896</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>897</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>845</v>
@@ -11078,7 +11077,7 @@
     </row>
     <row r="172" spans="2:11" ht="41.4" thickBot="1">
       <c r="B172" s="12" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>18</v>
@@ -11087,16 +11086,16 @@
         <v>2019</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G172" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="H172" s="8" t="s">
         <v>900</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>901</v>
       </c>
       <c r="I172" s="8" t="s">
         <v>845</v>
@@ -11110,7 +11109,7 @@
     </row>
     <row r="173" spans="2:11" ht="41.4" thickBot="1">
       <c r="B173" s="12" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>18</v>
@@ -11119,16 +11118,16 @@
         <v>2022</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F173" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G173" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="H173" s="8" t="s">
         <v>904</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>905</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>845</v>
@@ -11142,7 +11141,7 @@
     </row>
     <row r="174" spans="2:11" ht="41.4" thickBot="1">
       <c r="B174" s="12" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>18</v>
@@ -11151,16 +11150,16 @@
         <v>2022</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I174" s="8" t="s">
         <v>845</v>
@@ -11174,7 +11173,7 @@
     </row>
     <row r="175" spans="2:11" ht="41.4" thickBot="1">
       <c r="B175" s="12" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>135</v>
@@ -11183,19 +11182,19 @@
         <v>2024</v>
       </c>
       <c r="E175" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="G175" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="G175" s="8" t="s">
+      <c r="H175" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="H175" s="8" t="s">
-        <v>913</v>
-      </c>
       <c r="I175" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J175" s="8">
         <v>4</v>
@@ -11206,7 +11205,7 @@
     </row>
     <row r="176" spans="2:11" ht="51.6" thickBot="1">
       <c r="B176" s="12" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>135</v>
@@ -11215,16 +11214,16 @@
         <v>2021</v>
       </c>
       <c r="E176" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="G176" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="H176" s="8" t="s">
         <v>917</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>918</v>
       </c>
       <c r="I176" s="8" t="s">
         <v>845</v>
@@ -11238,7 +11237,7 @@
     </row>
     <row r="177" spans="2:11" ht="41.4" thickBot="1">
       <c r="B177" s="12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>135</v>
@@ -11247,16 +11246,16 @@
         <v>2022</v>
       </c>
       <c r="E177" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="G177" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="G177" s="8" t="s">
+      <c r="H177" s="8" t="s">
         <v>922</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>923</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>845</v>
@@ -11270,7 +11269,7 @@
     </row>
     <row r="178" spans="2:11" ht="41.4" thickBot="1">
       <c r="B178" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>18</v>
@@ -11279,19 +11278,19 @@
         <v>2019</v>
       </c>
       <c r="E178" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="F178" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="F178" s="18" t="s">
+      <c r="G178" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="G178" s="18" t="s">
+      <c r="H178" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="H178" s="18" t="s">
-        <v>928</v>
-      </c>
       <c r="I178" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J178" s="18">
         <v>5</v>
@@ -11302,7 +11301,7 @@
     </row>
     <row r="179" spans="2:11" ht="51.6" thickBot="1">
       <c r="B179" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>18</v>
@@ -11311,19 +11310,19 @@
         <v>2023</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F179" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G179" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="H179" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="H179" s="18" t="s">
-        <v>932</v>
-      </c>
       <c r="I179" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J179" s="18">
         <v>5</v>
@@ -11334,7 +11333,7 @@
     </row>
     <row r="180" spans="2:11" ht="36.6" customHeight="1" thickBot="1">
       <c r="B180" s="21" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>135</v>
@@ -11343,16 +11342,16 @@
         <v>2021</v>
       </c>
       <c r="E180" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="F180" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="F180" s="19" t="s">
+      <c r="G180" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="G180" s="19" t="s">
+      <c r="H180" s="19" t="s">
         <v>936</v>
-      </c>
-      <c r="H180" s="19" t="s">
-        <v>937</v>
       </c>
       <c r="I180" s="13" t="s">
         <v>845</v>
@@ -11366,7 +11365,7 @@
     </row>
     <row r="181" spans="2:11" ht="51.6" thickBot="1">
       <c r="B181" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>135</v>
@@ -11375,16 +11374,16 @@
         <v>2020</v>
       </c>
       <c r="E181" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="F181" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="F181" s="13" t="s">
+      <c r="G181" s="13" t="s">
         <v>940</v>
       </c>
-      <c r="G181" s="13" t="s">
+      <c r="H181" s="13" t="s">
         <v>941</v>
-      </c>
-      <c r="H181" s="13" t="s">
-        <v>942</v>
       </c>
       <c r="I181" s="13" t="s">
         <v>845</v>
@@ -11398,7 +11397,7 @@
     </row>
     <row r="182" spans="2:11" ht="51.6" thickBot="1">
       <c r="B182" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>135</v>
@@ -11407,16 +11406,16 @@
         <v>2021</v>
       </c>
       <c r="E182" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="F182" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="F182" s="13" t="s">
+      <c r="G182" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="G182" s="13" t="s">
+      <c r="H182" s="13" t="s">
         <v>946</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>947</v>
       </c>
       <c r="I182" s="13" t="s">
         <v>845</v>
@@ -11430,7 +11429,7 @@
     </row>
     <row r="183" spans="2:11" ht="61.8" thickBot="1">
       <c r="B183" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>851</v>
@@ -11439,16 +11438,16 @@
         <v>2024</v>
       </c>
       <c r="E183" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="F183" s="13" t="s">
         <v>949</v>
       </c>
-      <c r="F183" s="13" t="s">
+      <c r="G183" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="G183" s="13" t="s">
+      <c r="H183" s="13" t="s">
         <v>951</v>
-      </c>
-      <c r="H183" s="13" t="s">
-        <v>952</v>
       </c>
       <c r="I183" s="13" t="s">
         <v>845</v>
@@ -11462,7 +11461,7 @@
     </row>
     <row r="184" spans="2:11" ht="66" customHeight="1" thickBot="1">
       <c r="B184" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>135</v>
@@ -11471,19 +11470,19 @@
         <v>2022</v>
       </c>
       <c r="E184" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F184" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="F184" s="13" t="s">
+      <c r="G184" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="G184" s="13" t="s">
+      <c r="H184" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="H184" s="13" t="s">
-        <v>957</v>
-      </c>
       <c r="I184" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J184" s="13">
         <v>5</v>
@@ -11494,7 +11493,7 @@
     </row>
     <row r="185" spans="2:11" ht="61.8" thickBot="1">
       <c r="B185" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>135</v>
@@ -11503,16 +11502,16 @@
         <v>2023</v>
       </c>
       <c r="E185" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="F185" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="G185" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="F185" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="G185" s="13" t="s">
+      <c r="H185" s="13" t="s">
         <v>960</v>
-      </c>
-      <c r="H185" s="13" t="s">
-        <v>961</v>
       </c>
       <c r="I185" s="13" t="s">
         <v>845</v>
@@ -11526,7 +11525,7 @@
     </row>
     <row r="186" spans="2:11" ht="51.6" thickBot="1">
       <c r="B186" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>54</v>
@@ -11535,16 +11534,16 @@
         <v>2024</v>
       </c>
       <c r="E186" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="G186" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="F186" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="G186" s="13" t="s">
+      <c r="H186" s="13" t="s">
         <v>964</v>
-      </c>
-      <c r="H186" s="13" t="s">
-        <v>965</v>
       </c>
       <c r="I186" s="13" t="s">
         <v>845</v>
@@ -11558,25 +11557,25 @@
     </row>
     <row r="187" spans="2:11" ht="51.6" thickBot="1">
       <c r="B187" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D187" s="13">
         <v>2019</v>
       </c>
       <c r="E187" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="F187" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="G187" s="13" t="s">
         <v>967</v>
       </c>
-      <c r="F187" s="13" t="s">
-        <v>940</v>
-      </c>
-      <c r="G187" s="13" t="s">
+      <c r="H187" s="13" t="s">
         <v>968</v>
-      </c>
-      <c r="H187" s="13" t="s">
-        <v>969</v>
       </c>
       <c r="I187" s="13" t="s">
         <v>845</v>
@@ -11590,25 +11589,25 @@
     </row>
     <row r="188" spans="2:11" ht="51.6" thickBot="1">
       <c r="B188" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D188" s="13">
         <v>2022</v>
       </c>
       <c r="E188" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="F188" s="13" t="s">
         <v>971</v>
       </c>
-      <c r="F188" s="13" t="s">
+      <c r="G188" s="13" t="s">
         <v>972</v>
       </c>
-      <c r="G188" s="13" t="s">
+      <c r="H188" s="13" t="s">
         <v>973</v>
-      </c>
-      <c r="H188" s="13" t="s">
-        <v>974</v>
       </c>
       <c r="I188" s="13" t="s">
         <v>845</v>
@@ -11622,28 +11621,28 @@
     </row>
     <row r="189" spans="2:11" ht="21" thickBot="1">
       <c r="B189" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="C189" s="13" t="s">
         <v>975</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>976</v>
       </c>
       <c r="D189" s="13">
         <v>2019</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F189" s="13" t="s">
         <v>216</v>
       </c>
       <c r="G189" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="H189" s="13" t="s">
         <v>978</v>
       </c>
-      <c r="H189" s="13" t="s">
-        <v>979</v>
-      </c>
       <c r="I189" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J189" s="13">
         <v>5</v>
@@ -11654,7 +11653,7 @@
     </row>
     <row r="190" spans="2:11" ht="41.4" thickBot="1">
       <c r="B190" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>851</v>
@@ -11663,13 +11662,13 @@
         <v>2016</v>
       </c>
       <c r="E190" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F190" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G190" s="13" t="s">
         <v>981</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>982</v>
       </c>
       <c r="H190" s="13" t="s">
         <v>133</v>
@@ -11686,7 +11685,7 @@
     </row>
     <row r="191" spans="2:11" ht="31.2" thickBot="1">
       <c r="B191" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>851</v>
@@ -11695,19 +11694,19 @@
         <v>2024</v>
       </c>
       <c r="E191" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="F191" s="13" t="s">
         <v>984</v>
       </c>
-      <c r="F191" s="13" t="s">
+      <c r="G191" s="13" t="s">
         <v>985</v>
-      </c>
-      <c r="G191" s="13" t="s">
-        <v>986</v>
       </c>
       <c r="H191" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J191" s="13">
         <v>5</v>
@@ -11718,22 +11717,22 @@
     </row>
     <row r="192" spans="2:11" ht="51.6" thickBot="1">
       <c r="B192" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="C192" s="13" t="s">
         <v>987</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="D192" s="13">
         <v>2023</v>
       </c>
       <c r="E192" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="F192" s="13" t="s">
         <v>989</v>
       </c>
-      <c r="F192" s="13" t="s">
+      <c r="G192" s="13" t="s">
         <v>990</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>991</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>139</v>
@@ -11750,7 +11749,7 @@
     </row>
     <row r="193" spans="2:11" ht="31.2" thickBot="1">
       <c r="B193" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>18</v>
@@ -11759,16 +11758,16 @@
         <v>2020</v>
       </c>
       <c r="E193" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>993</v>
       </c>
-      <c r="F193" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G193" s="13" t="s">
+      <c r="H193" s="13" t="s">
         <v>994</v>
-      </c>
-      <c r="H193" s="13" t="s">
-        <v>995</v>
       </c>
       <c r="I193" s="13" t="s">
         <v>845</v>
@@ -11782,7 +11781,7 @@
     </row>
     <row r="194" spans="2:11" ht="41.4" thickBot="1">
       <c r="B194" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>135</v>
@@ -11791,19 +11790,19 @@
         <v>2022</v>
       </c>
       <c r="E194" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="F194" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="F194" s="13" t="s">
+      <c r="G194" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>999</v>
       </c>
       <c r="H194" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J194" s="13">
         <v>5</v>
@@ -11814,7 +11813,7 @@
     </row>
     <row r="195" spans="2:11" ht="41.4" thickBot="1">
       <c r="B195" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>18</v>
@@ -11823,13 +11822,13 @@
         <v>2023</v>
       </c>
       <c r="E195" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G195" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="F195" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>1002</v>
       </c>
       <c r="H195" s="13" t="s">
         <v>133</v>
@@ -11846,7 +11845,7 @@
     </row>
     <row r="196" spans="2:11" ht="61.8" thickBot="1">
       <c r="B196" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>135</v>
@@ -11855,19 +11854,19 @@
         <v>2022</v>
       </c>
       <c r="E196" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="G196" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="F196" s="13" t="s">
-        <v>990</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>1005</v>
       </c>
       <c r="H196" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J196" s="13">
         <v>5</v>
@@ -11878,7 +11877,7 @@
     </row>
     <row r="197" spans="2:11" ht="31.2" thickBot="1">
       <c r="B197" s="14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>18</v>
@@ -11887,19 +11886,19 @@
         <v>2024</v>
       </c>
       <c r="E197" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F197" s="13" t="s">
         <v>1007</v>
       </c>
-      <c r="F197" s="13" t="s">
+      <c r="G197" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="G197" s="13" t="s">
-        <v>1009</v>
       </c>
       <c r="H197" s="13" t="s">
         <v>131</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J197" s="13">
         <v>5</v>
@@ -11910,7 +11909,7 @@
     </row>
     <row r="198" spans="2:11" ht="31.2" thickBot="1">
       <c r="B198" s="14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>851</v>
@@ -11919,13 +11918,13 @@
         <v>2023</v>
       </c>
       <c r="E198" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="G198" s="13" t="s">
         <v>1011</v>
-      </c>
-      <c r="F198" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="G198" s="13" t="s">
-        <v>1012</v>
       </c>
       <c r="H198" s="13" t="s">
         <v>133</v>
@@ -11942,7 +11941,7 @@
     </row>
     <row r="199" spans="2:11" ht="31.2" thickBot="1">
       <c r="B199" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>18</v>
@@ -11951,13 +11950,13 @@
         <v>2019</v>
       </c>
       <c r="E199" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F199" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="F199" s="13" t="s">
+      <c r="G199" s="13" t="s">
         <v>1015</v>
-      </c>
-      <c r="G199" s="13" t="s">
-        <v>1016</v>
       </c>
       <c r="H199" s="13" t="s">
         <v>133</v>
@@ -11974,25 +11973,25 @@
     </row>
     <row r="200" spans="2:11" ht="41.4" thickBot="1">
       <c r="B200" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C200" s="13" t="s">
         <v>1017</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="D200" s="13">
         <v>2021</v>
       </c>
       <c r="E200" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F200" s="13" t="s">
         <v>1019</v>
       </c>
-      <c r="F200" s="13" t="s">
+      <c r="G200" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="G200" s="13" t="s">
+      <c r="H200" s="13" t="s">
         <v>1021</v>
-      </c>
-      <c r="H200" s="13" t="s">
-        <v>1022</v>
       </c>
       <c r="I200" s="13" t="s">
         <v>845</v>
@@ -12006,7 +12005,7 @@
     </row>
     <row r="201" spans="2:11" ht="31.2" thickBot="1">
       <c r="B201" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>18</v>
@@ -12015,13 +12014,13 @@
         <v>2019</v>
       </c>
       <c r="E201" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="G201" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="F201" s="13" t="s">
-        <v>995</v>
-      </c>
-      <c r="G201" s="13" t="s">
-        <v>1025</v>
       </c>
       <c r="H201" s="13" t="s">
         <v>133</v>
@@ -12038,7 +12037,7 @@
     </row>
     <row r="202" spans="2:11" ht="41.4" thickBot="1">
       <c r="B202" s="14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>135</v>
@@ -12047,13 +12046,13 @@
         <v>2022</v>
       </c>
       <c r="E202" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G202" s="13" t="s">
         <v>1027</v>
-      </c>
-      <c r="F202" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G202" s="13" t="s">
-        <v>1028</v>
       </c>
       <c r="H202" s="13" t="s">
         <v>133</v>
@@ -12070,7 +12069,7 @@
     </row>
     <row r="203" spans="2:11" ht="41.4" thickBot="1">
       <c r="B203" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>18</v>
@@ -12079,16 +12078,16 @@
         <v>2022</v>
       </c>
       <c r="E203" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F203" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="F203" s="13" t="s">
+      <c r="G203" s="13" t="s">
         <v>1031</v>
       </c>
-      <c r="G203" s="13" t="s">
+      <c r="H203" s="13" t="s">
         <v>1032</v>
-      </c>
-      <c r="H203" s="13" t="s">
-        <v>1033</v>
       </c>
       <c r="I203" s="13" t="s">
         <v>845</v>
@@ -12102,7 +12101,7 @@
     </row>
     <row r="204" spans="2:11" ht="31.2" thickBot="1">
       <c r="B204" s="14" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>18</v>
@@ -12111,13 +12110,13 @@
         <v>2018</v>
       </c>
       <c r="E204" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G204" s="13" t="s">
         <v>1035</v>
-      </c>
-      <c r="F204" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G204" s="13" t="s">
-        <v>1036</v>
       </c>
       <c r="H204" s="13" t="s">
         <v>133</v>
@@ -12134,7 +12133,7 @@
     </row>
     <row r="205" spans="2:11" ht="31.2" thickBot="1">
       <c r="B205" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>135</v>
@@ -12143,16 +12142,16 @@
         <v>2022</v>
       </c>
       <c r="E205" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F205" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="F205" s="13" t="s">
+      <c r="G205" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="G205" s="13" t="s">
+      <c r="H205" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="H205" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="I205" s="13" t="s">
         <v>845</v>
@@ -12166,7 +12165,7 @@
     </row>
     <row r="206" spans="2:11" ht="41.4" thickBot="1">
       <c r="B206" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>135</v>
@@ -12175,19 +12174,19 @@
         <v>2021</v>
       </c>
       <c r="E206" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F206" s="13" t="s">
         <v>1043</v>
       </c>
-      <c r="F206" s="13" t="s">
+      <c r="G206" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="G206" s="13" t="s">
+      <c r="H206" s="13" t="s">
         <v>1045</v>
       </c>
-      <c r="H206" s="13" t="s">
-        <v>1046</v>
-      </c>
       <c r="I206" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J206" s="13">
         <v>5</v>
@@ -12198,7 +12197,7 @@
     </row>
     <row r="207" spans="2:11" ht="31.2" thickBot="1">
       <c r="B207" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>135</v>
@@ -12207,19 +12206,19 @@
         <v>2020</v>
       </c>
       <c r="E207" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F207" s="13" t="s">
         <v>1048</v>
       </c>
-      <c r="F207" s="13" t="s">
+      <c r="G207" s="13" t="s">
         <v>1049</v>
       </c>
-      <c r="G207" s="13" t="s">
-        <v>1050</v>
-      </c>
       <c r="H207" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J207" s="13">
         <v>4</v>
@@ -12230,7 +12229,7 @@
     </row>
     <row r="208" spans="2:11" ht="31.2" thickBot="1">
       <c r="B208" s="14" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>18</v>
@@ -12239,13 +12238,13 @@
         <v>2018</v>
       </c>
       <c r="E208" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F208" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="F208" s="13" t="s">
+      <c r="G208" s="13" t="s">
         <v>1053</v>
-      </c>
-      <c r="G208" s="13" t="s">
-        <v>1054</v>
       </c>
       <c r="H208" s="13" t="s">
         <v>133</v>
@@ -12262,25 +12261,25 @@
     </row>
     <row r="209" spans="2:11" ht="41.4" thickBot="1">
       <c r="B209" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D209" s="13">
         <v>2021</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F209" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G209" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="G209" s="13" t="s">
+      <c r="H209" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="H209" s="13" t="s">
-        <v>1058</v>
       </c>
       <c r="I209" s="13" t="s">
         <v>845</v>
@@ -12297,19 +12296,19 @@
         <v>356</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D210" s="13">
         <v>2022</v>
       </c>
       <c r="E210" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G210" s="13" t="s">
         <v>1060</v>
-      </c>
-      <c r="F210" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G210" s="13" t="s">
-        <v>1061</v>
       </c>
       <c r="H210" s="13" t="s">
         <v>131</v>
@@ -12326,22 +12325,22 @@
     </row>
     <row r="211" spans="2:11" ht="41.4" thickBot="1">
       <c r="B211" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D211" s="13">
         <v>2022</v>
       </c>
       <c r="E211" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F211" s="13" t="s">
         <v>1063</v>
       </c>
-      <c r="F211" s="13" t="s">
+      <c r="G211" s="13" t="s">
         <v>1064</v>
-      </c>
-      <c r="G211" s="13" t="s">
-        <v>1065</v>
       </c>
       <c r="H211" s="13" t="s">
         <v>133</v>
@@ -12361,22 +12360,22 @@
         <v>373</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D212" s="13">
         <v>2019</v>
       </c>
       <c r="E212" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G212" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="F212" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G212" s="13" t="s">
+      <c r="H212" s="13" t="s">
         <v>1067</v>
-      </c>
-      <c r="H212" s="13" t="s">
-        <v>1068</v>
       </c>
       <c r="I212" s="13" t="s">
         <v>845</v>
@@ -12390,25 +12389,25 @@
     </row>
     <row r="213" spans="2:11" ht="41.4" thickBot="1">
       <c r="B213" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D213" s="13">
         <v>2022</v>
       </c>
       <c r="E213" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G213" s="13" t="s">
         <v>1070</v>
       </c>
-      <c r="F213" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G213" s="13" t="s">
+      <c r="H213" s="13" t="s">
         <v>1071</v>
-      </c>
-      <c r="H213" s="13" t="s">
-        <v>1072</v>
       </c>
       <c r="I213" s="13" t="s">
         <v>845</v>
@@ -12422,7 +12421,7 @@
     </row>
     <row r="214" spans="2:11" ht="41.4" thickBot="1">
       <c r="B214" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>18</v>
@@ -12431,16 +12430,16 @@
         <v>2018</v>
       </c>
       <c r="E214" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G214" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="F214" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G214" s="13" t="s">
+      <c r="H214" s="13" t="s">
         <v>1075</v>
-      </c>
-      <c r="H214" s="13" t="s">
-        <v>1076</v>
       </c>
       <c r="I214" s="13" t="s">
         <v>845</v>
@@ -12454,7 +12453,7 @@
     </row>
     <row r="215" spans="2:11" ht="31.2" thickBot="1">
       <c r="B215" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>18</v>
@@ -12463,16 +12462,16 @@
         <v>2018</v>
       </c>
       <c r="E215" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G215" s="13" t="s">
         <v>1078</v>
       </c>
-      <c r="F215" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="G215" s="13" t="s">
-        <v>1079</v>
-      </c>
       <c r="H215" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I215" s="13" t="s">
         <v>845</v>
@@ -12486,7 +12485,7 @@
     </row>
     <row r="216" spans="2:11" ht="41.4" thickBot="1">
       <c r="B216" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>135</v>
@@ -12495,16 +12494,16 @@
         <v>2021</v>
       </c>
       <c r="E216" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F216" s="13" t="s">
         <v>1081</v>
       </c>
-      <c r="F216" s="13" t="s">
+      <c r="G216" s="13" t="s">
         <v>1082</v>
       </c>
-      <c r="G216" s="13" t="s">
-        <v>1083</v>
-      </c>
       <c r="H216" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I216" s="13" t="s">
         <v>845</v>
@@ -12518,7 +12517,7 @@
     </row>
     <row r="217" spans="2:11" ht="41.4" thickBot="1">
       <c r="B217" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>135</v>
@@ -12527,16 +12526,16 @@
         <v>2024</v>
       </c>
       <c r="E217" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G217" s="13" t="s">
         <v>1085</v>
       </c>
-      <c r="F217" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G217" s="13" t="s">
-        <v>1086</v>
-      </c>
       <c r="H217" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I217" s="13" t="s">
         <v>845</v>
@@ -12550,7 +12549,7 @@
     </row>
     <row r="218" spans="2:11" ht="41.4" thickBot="1">
       <c r="B218" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>18</v>
@@ -12559,13 +12558,13 @@
         <v>2024</v>
       </c>
       <c r="E218" s="13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F218" s="13" t="s">
         <v>1088</v>
       </c>
-      <c r="F218" s="13" t="s">
+      <c r="G218" s="13" t="s">
         <v>1089</v>
-      </c>
-      <c r="G218" s="13" t="s">
-        <v>1090</v>
       </c>
       <c r="H218" s="13" t="s">
         <v>133</v>
@@ -12582,7 +12581,7 @@
     </row>
     <row r="219" spans="2:11" ht="31.2" thickBot="1">
       <c r="B219" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>18</v>
@@ -12591,13 +12590,13 @@
         <v>2020</v>
       </c>
       <c r="E219" s="13" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F219" s="13" t="s">
         <v>1092</v>
       </c>
-      <c r="F219" s="13" t="s">
+      <c r="G219" s="13" t="s">
         <v>1093</v>
-      </c>
-      <c r="G219" s="13" t="s">
-        <v>1094</v>
       </c>
       <c r="H219" s="13" t="s">
         <v>133</v>
@@ -12614,7 +12613,7 @@
     </row>
     <row r="220" spans="2:11" ht="41.4" thickBot="1">
       <c r="B220" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>18</v>
@@ -12623,13 +12622,13 @@
         <v>2022</v>
       </c>
       <c r="E220" s="13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F220" s="13" t="s">
         <v>216</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H220" s="13" t="s">
         <v>133</v>
@@ -12646,7 +12645,7 @@
     </row>
     <row r="221" spans="2:11" ht="41.4" thickBot="1">
       <c r="B221" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>18</v>
@@ -12655,13 +12654,13 @@
         <v>2022</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F221" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H221" s="13" t="s">
         <v>133</v>
@@ -12678,7 +12677,7 @@
     </row>
     <row r="222" spans="2:11" ht="31.2" thickBot="1">
       <c r="B222" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>135</v>
@@ -12687,16 +12686,16 @@
         <v>2023</v>
       </c>
       <c r="E222" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F222" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="F222" s="13" t="s">
+      <c r="G222" s="13" t="s">
         <v>1103</v>
       </c>
-      <c r="G222" s="13" t="s">
+      <c r="H222" s="13" t="s">
         <v>1104</v>
-      </c>
-      <c r="H222" s="13" t="s">
-        <v>1105</v>
       </c>
       <c r="I222" s="13" t="s">
         <v>845</v>
@@ -12710,7 +12709,7 @@
     </row>
     <row r="223" spans="2:11" ht="41.4" thickBot="1">
       <c r="B223" s="14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>18</v>
@@ -12719,13 +12718,13 @@
         <v>2021</v>
       </c>
       <c r="E223" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H223" s="13" t="s">
         <v>568</v>
@@ -12742,7 +12741,7 @@
     </row>
     <row r="224" spans="2:11" ht="51.6" thickBot="1">
       <c r="B224" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>135</v>
@@ -12751,13 +12750,13 @@
         <v>2022</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F224" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H224" s="13" t="s">
         <v>133</v>
@@ -12774,7 +12773,7 @@
     </row>
     <row r="225" spans="2:11" ht="41.4" thickBot="1">
       <c r="B225" s="14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>135</v>
@@ -12783,16 +12782,16 @@
         <v>2024</v>
       </c>
       <c r="E225" s="13" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F225" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G225" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H225" s="13" t="s">
         <v>1114</v>
-      </c>
-      <c r="H225" s="13" t="s">
-        <v>1115</v>
       </c>
       <c r="I225" s="13" t="s">
         <v>845</v>
@@ -12806,7 +12805,7 @@
     </row>
     <row r="226" spans="2:11" ht="31.2" thickBot="1">
       <c r="B226" s="14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>18</v>
@@ -12815,13 +12814,13 @@
         <v>2018</v>
       </c>
       <c r="E226" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F226" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H226" s="13" t="s">
         <v>133</v>
@@ -12838,7 +12837,7 @@
     </row>
     <row r="227" spans="2:11" ht="41.4" thickBot="1">
       <c r="B227" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>135</v>
@@ -12847,13 +12846,13 @@
         <v>2023</v>
       </c>
       <c r="E227" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F227" s="13" t="s">
         <v>1120</v>
       </c>
-      <c r="F227" s="13" t="s">
+      <c r="G227" s="13" t="s">
         <v>1121</v>
-      </c>
-      <c r="G227" s="13" t="s">
-        <v>1122</v>
       </c>
       <c r="H227" s="13" t="s">
         <v>133</v>
@@ -12870,7 +12869,7 @@
     </row>
     <row r="228" spans="2:11" ht="41.4" thickBot="1">
       <c r="B228" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>135</v>
@@ -12879,13 +12878,13 @@
         <v>2024</v>
       </c>
       <c r="E228" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G228" s="13" t="s">
         <v>1124</v>
-      </c>
-      <c r="F228" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="G228" s="13" t="s">
-        <v>1125</v>
       </c>
       <c r="H228" s="13" t="s">
         <v>133</v>
@@ -12902,7 +12901,7 @@
     </row>
     <row r="229" spans="2:11" ht="51.6" thickBot="1">
       <c r="B229" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>18</v>
@@ -12911,13 +12910,13 @@
         <v>2022</v>
       </c>
       <c r="E229" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F229" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H229" s="13" t="s">
         <v>133</v>
@@ -12934,7 +12933,7 @@
     </row>
     <row r="230" spans="2:11" ht="51.6" thickBot="1">
       <c r="B230" s="14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>135</v>
@@ -12943,19 +12942,19 @@
         <v>2024</v>
       </c>
       <c r="E230" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F230" s="13" t="s">
         <v>1130</v>
       </c>
-      <c r="F230" s="13" t="s">
+      <c r="G230" s="13" t="s">
         <v>1131</v>
-      </c>
-      <c r="G230" s="13" t="s">
-        <v>1132</v>
       </c>
       <c r="H230" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I230" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J230" s="13">
         <v>5</v>
@@ -12966,7 +12965,7 @@
     </row>
     <row r="231" spans="2:11" ht="61.8" thickBot="1">
       <c r="B231" s="14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>18</v>
@@ -12975,13 +12974,13 @@
         <v>2018</v>
       </c>
       <c r="E231" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F231" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G231" s="13" t="s">
         <v>1134</v>
-      </c>
-      <c r="F231" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G231" s="13" t="s">
-        <v>1135</v>
       </c>
       <c r="H231" s="13" t="s">
         <v>131</v>
@@ -12998,7 +12997,7 @@
     </row>
     <row r="232" spans="2:11" ht="72" thickBot="1">
       <c r="B232" s="14" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>18</v>
@@ -13007,13 +13006,13 @@
         <v>2015</v>
       </c>
       <c r="E232" s="13" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F232" s="13" t="s">
         <v>1137</v>
       </c>
-      <c r="F232" s="13" t="s">
+      <c r="G232" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="G232" s="13" t="s">
-        <v>1139</v>
       </c>
       <c r="H232" s="13" t="s">
         <v>133</v>
@@ -13030,7 +13029,7 @@
     </row>
     <row r="233" spans="2:11" ht="61.8" thickBot="1">
       <c r="B233" s="14" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>18</v>
@@ -13039,13 +13038,13 @@
         <v>2023</v>
       </c>
       <c r="E233" s="13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F233" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G233" s="13" t="s">
         <v>1141</v>
-      </c>
-      <c r="F233" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G233" s="13" t="s">
-        <v>1142</v>
       </c>
       <c r="H233" s="13" t="s">
         <v>133</v>
@@ -13062,7 +13061,7 @@
     </row>
     <row r="234" spans="2:11" ht="51.6" thickBot="1">
       <c r="B234" s="14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>18</v>
@@ -13071,19 +13070,19 @@
         <v>2024</v>
       </c>
       <c r="E234" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G234" s="13" t="s">
         <v>1144</v>
-      </c>
-      <c r="F234" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G234" s="13" t="s">
-        <v>1145</v>
       </c>
       <c r="H234" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I234" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J234" s="13">
         <v>5</v>
@@ -13094,7 +13093,7 @@
     </row>
     <row r="235" spans="2:11" ht="51.6" thickBot="1">
       <c r="B235" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>18</v>
@@ -13103,19 +13102,19 @@
         <v>2018</v>
       </c>
       <c r="E235" s="13" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F235" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="F235" s="13" t="s">
+      <c r="G235" s="13" t="s">
         <v>1148</v>
-      </c>
-      <c r="G235" s="13" t="s">
-        <v>1149</v>
       </c>
       <c r="H235" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I235" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J235" s="13">
         <v>5</v>
@@ -13126,7 +13125,7 @@
     </row>
     <row r="236" spans="2:11" ht="41.4" thickBot="1">
       <c r="B236" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>851</v>
@@ -13135,13 +13134,13 @@
         <v>2023</v>
       </c>
       <c r="E236" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F236" s="13" t="s">
         <v>1152</v>
       </c>
-      <c r="F236" s="13" t="s">
+      <c r="G236" s="13" t="s">
         <v>1153</v>
-      </c>
-      <c r="G236" s="13" t="s">
-        <v>1154</v>
       </c>
       <c r="H236" s="13" t="s">
         <v>133</v>
@@ -13158,7 +13157,7 @@
     </row>
     <row r="237" spans="2:11" ht="51.6" thickBot="1">
       <c r="B237" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>18</v>
@@ -13167,16 +13166,16 @@
         <v>2020</v>
       </c>
       <c r="E237" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G237" s="13" t="s">
         <v>1156</v>
       </c>
-      <c r="F237" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G237" s="13" t="s">
-        <v>1157</v>
-      </c>
       <c r="H237" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I237" s="13" t="s">
         <v>845</v>
@@ -13190,7 +13189,7 @@
     </row>
     <row r="238" spans="2:11" ht="51.6" thickBot="1">
       <c r="B238" s="14" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>18</v>
@@ -13199,16 +13198,16 @@
         <v>2022</v>
       </c>
       <c r="E238" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F238" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G238" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="F238" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G238" s="13" t="s">
+      <c r="H238" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="H238" s="13" t="s">
-        <v>1161</v>
       </c>
       <c r="I238" s="13" t="s">
         <v>845</v>
@@ -13222,7 +13221,7 @@
     </row>
     <row r="239" spans="2:11" ht="31.2" thickBot="1">
       <c r="B239" s="14" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>135</v>
@@ -13231,13 +13230,13 @@
         <v>2023</v>
       </c>
       <c r="E239" s="13" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F239" s="13" t="s">
         <v>1163</v>
       </c>
-      <c r="F239" s="13" t="s">
+      <c r="G239" s="13" t="s">
         <v>1164</v>
-      </c>
-      <c r="G239" s="13" t="s">
-        <v>1165</v>
       </c>
       <c r="H239" s="13" t="s">
         <v>133</v>
@@ -13254,7 +13253,7 @@
     </row>
     <row r="240" spans="2:11" ht="31.2" thickBot="1">
       <c r="B240" s="14" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>18</v>
@@ -13263,13 +13262,13 @@
         <v>2022</v>
       </c>
       <c r="E240" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F240" s="13" t="s">
         <v>1167</v>
       </c>
-      <c r="F240" s="13" t="s">
+      <c r="G240" s="13" t="s">
         <v>1168</v>
-      </c>
-      <c r="G240" s="13" t="s">
-        <v>1169</v>
       </c>
       <c r="H240" s="13" t="s">
         <v>522</v>
@@ -13286,7 +13285,7 @@
     </row>
     <row r="241" spans="2:11" ht="31.2" thickBot="1">
       <c r="B241" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>18</v>
@@ -13295,19 +13294,19 @@
         <v>2019</v>
       </c>
       <c r="E241" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F241" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="F241" s="13" t="s">
+      <c r="G241" s="13" t="s">
         <v>1172</v>
-      </c>
-      <c r="G241" s="13" t="s">
-        <v>1173</v>
       </c>
       <c r="H241" s="13" t="s">
         <v>522</v>
       </c>
       <c r="I241" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J241" s="13">
         <v>4</v>
@@ -13318,25 +13317,25 @@
     </row>
     <row r="242" spans="2:11" ht="31.2" thickBot="1">
       <c r="B242" s="14" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D242" s="13">
         <v>2022</v>
       </c>
       <c r="E242" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G242" s="13" t="s">
         <v>1175</v>
       </c>
-      <c r="F242" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="G242" s="13" t="s">
+      <c r="H242" s="13" t="s">
         <v>1176</v>
-      </c>
-      <c r="H242" s="13" t="s">
-        <v>1177</v>
       </c>
       <c r="I242" s="13" t="s">
         <v>845</v>
@@ -13350,7 +13349,7 @@
     </row>
     <row r="243" spans="2:11" ht="31.2" thickBot="1">
       <c r="B243" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>18</v>
@@ -13359,16 +13358,16 @@
         <v>2023</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F243" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G243" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H243" s="13" t="s">
         <v>1180</v>
-      </c>
-      <c r="H243" s="13" t="s">
-        <v>1181</v>
       </c>
       <c r="I243" s="13" t="s">
         <v>845</v>
@@ -13382,7 +13381,7 @@
     </row>
     <row r="244" spans="2:11" ht="28.2" thickBot="1">
       <c r="B244" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>18</v>
@@ -13391,19 +13390,19 @@
         <v>2015</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F244" s="13" t="s">
         <v>216</v>
       </c>
       <c r="G244" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H244" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="H244" s="13" t="s">
-        <v>1185</v>
-      </c>
       <c r="I244" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J244" s="13">
         <v>5</v>
@@ -13414,7 +13413,7 @@
     </row>
     <row r="245" spans="2:11" ht="21" thickBot="1">
       <c r="B245" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>135</v>
@@ -13423,13 +13422,13 @@
         <v>2024</v>
       </c>
       <c r="E245" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F245" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G245" s="13" t="s">
         <v>1187</v>
-      </c>
-      <c r="F245" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="G245" s="13" t="s">
-        <v>1188</v>
       </c>
       <c r="H245" s="13" t="s">
         <v>522</v>
@@ -13446,7 +13445,7 @@
     </row>
     <row r="246" spans="2:11" ht="31.2" thickBot="1">
       <c r="B246" s="14" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>135</v>
@@ -13455,19 +13454,19 @@
         <v>2018</v>
       </c>
       <c r="E246" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F246" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="F246" s="13" t="s">
+      <c r="G246" s="13" t="s">
         <v>1191</v>
-      </c>
-      <c r="G246" s="13" t="s">
-        <v>1192</v>
       </c>
       <c r="H246" s="13" t="s">
         <v>308</v>
       </c>
       <c r="I246" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J246" s="13">
         <v>4</v>
@@ -13478,7 +13477,7 @@
     </row>
     <row r="247" spans="2:11" ht="31.2" thickBot="1">
       <c r="B247" s="14" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>135</v>
@@ -13487,16 +13486,16 @@
         <v>2018</v>
       </c>
       <c r="E247" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F247" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="F247" s="13" t="s">
+      <c r="G247" s="13" t="s">
         <v>1195</v>
       </c>
-      <c r="G247" s="13" t="s">
-        <v>1196</v>
-      </c>
       <c r="H247" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I247" s="13" t="s">
         <v>845</v>
@@ -13510,7 +13509,7 @@
     </row>
     <row r="248" spans="2:11" ht="31.2" thickBot="1">
       <c r="B248" s="14" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>18</v>
@@ -13519,16 +13518,16 @@
         <v>2021</v>
       </c>
       <c r="E248" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F248" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="G248" s="13" t="s">
         <v>1198</v>
       </c>
-      <c r="F248" s="13" t="s">
-        <v>976</v>
-      </c>
-      <c r="G248" s="13" t="s">
+      <c r="H248" s="13" t="s">
         <v>1199</v>
-      </c>
-      <c r="H248" s="13" t="s">
-        <v>1200</v>
       </c>
       <c r="I248" s="13" t="s">
         <v>845</v>
@@ -13542,7 +13541,7 @@
     </row>
     <row r="249" spans="2:11" ht="31.2" thickBot="1">
       <c r="B249" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>18</v>
@@ -13551,19 +13550,19 @@
         <v>2024</v>
       </c>
       <c r="E249" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F249" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="F249" s="13" t="s">
+      <c r="G249" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="G249" s="13" t="s">
-        <v>1204</v>
       </c>
       <c r="H249" s="13" t="s">
         <v>133</v>
       </c>
       <c r="I249" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J249" s="13">
         <v>5</v>
@@ -13583,19 +13582,19 @@
         <v>2019</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F250" s="13" t="s">
         <v>238</v>
       </c>
       <c r="G250" s="13" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H250" s="13" t="s">
         <v>308</v>
       </c>
       <c r="I250" s="13" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J250" s="13">
         <v>5</v>
@@ -13606,7 +13605,7 @@
     </row>
     <row r="251" spans="2:11" ht="31.2" thickBot="1">
       <c r="B251" s="14" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>18</v>
@@ -13615,16 +13614,16 @@
         <v>2022</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F251" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G251" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H251" s="13" t="s">
         <v>1209</v>
-      </c>
-      <c r="H251" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="I251" s="13" t="s">
         <v>845</v>
@@ -13638,7 +13637,7 @@
     </row>
     <row r="252" spans="2:11" ht="31.2" thickBot="1">
       <c r="B252" s="14" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>18</v>
@@ -13647,16 +13646,16 @@
         <v>2022</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F252" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G252" s="13" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I252" s="13" t="s">
         <v>845</v>
@@ -13670,7 +13669,7 @@
     </row>
     <row r="253" spans="2:11" ht="31.2" thickBot="1">
       <c r="B253" s="14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>18</v>
@@ -13679,16 +13678,16 @@
         <v>2019</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F253" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G253" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H253" s="13" t="s">
         <v>1216</v>
-      </c>
-      <c r="H253" s="13" t="s">
-        <v>1217</v>
       </c>
       <c r="I253" s="13" t="s">
         <v>845</v>
@@ -13702,7 +13701,7 @@
     </row>
     <row r="254" spans="2:11" ht="31.2" thickBot="1">
       <c r="B254" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>135</v>
@@ -13711,13 +13710,13 @@
         <v>2023</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F254" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G254" s="13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H254" s="13" t="s">
         <v>133</v>
@@ -13734,7 +13733,7 @@
     </row>
     <row r="255" spans="2:11" ht="31.2" thickBot="1">
       <c r="B255" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>18</v>
@@ -13743,13 +13742,13 @@
         <v>2018</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F255" s="13" t="s">
         <v>238</v>
       </c>
       <c r="G255" s="13" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H255" s="13" t="s">
         <v>133</v>
@@ -13766,7 +13765,7 @@
     </row>
     <row r="256" spans="2:11" ht="31.2" thickBot="1">
       <c r="B256" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>135</v>
@@ -13775,16 +13774,16 @@
         <v>2022</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F256" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G256" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H256" s="13" t="s">
         <v>1226</v>
-      </c>
-      <c r="H256" s="13" t="s">
-        <v>1227</v>
       </c>
       <c r="I256" s="13" t="s">
         <v>755</v>
@@ -13798,7 +13797,7 @@
     </row>
     <row r="257" spans="2:11" ht="31.2" thickBot="1">
       <c r="B257" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>18</v>
@@ -13807,13 +13806,13 @@
         <v>2022</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F257" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G257" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H257" s="13" t="s">
         <v>522</v>
@@ -13830,7 +13829,7 @@
     </row>
     <row r="258" spans="2:11" ht="31.2" thickBot="1">
       <c r="B258" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>18</v>
@@ -13839,13 +13838,13 @@
         <v>2024</v>
       </c>
       <c r="E258" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F258" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="G258" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="G258" s="13" t="s">
-        <v>1204</v>
       </c>
       <c r="H258" s="13" t="s">
         <v>133</v>
@@ -13862,7 +13861,7 @@
     </row>
     <row r="259" spans="2:11" ht="41.4" thickBot="1">
       <c r="B259" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>18</v>
@@ -13871,16 +13870,16 @@
         <v>2018</v>
       </c>
       <c r="E259" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F259" s="13" t="s">
         <v>1232</v>
       </c>
-      <c r="F259" s="13" t="s">
+      <c r="G259" s="13" t="s">
         <v>1233</v>
       </c>
-      <c r="G259" s="13" t="s">
+      <c r="H259" s="13" t="s">
         <v>1234</v>
-      </c>
-      <c r="H259" s="13" t="s">
-        <v>1235</v>
       </c>
       <c r="I259" s="13" t="s">
         <v>845</v>
@@ -13894,7 +13893,7 @@
     </row>
     <row r="260" spans="2:11" ht="31.2" thickBot="1">
       <c r="B260" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>18</v>
@@ -13903,16 +13902,16 @@
         <v>2019</v>
       </c>
       <c r="E260" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F260" s="13" t="s">
         <v>1237</v>
       </c>
-      <c r="F260" s="13" t="s">
+      <c r="G260" s="13" t="s">
         <v>1238</v>
       </c>
-      <c r="G260" s="13" t="s">
+      <c r="H260" s="13" t="s">
         <v>1239</v>
-      </c>
-      <c r="H260" s="13" t="s">
-        <v>1240</v>
       </c>
       <c r="I260" s="13" t="s">
         <v>845</v>
@@ -13926,7 +13925,7 @@
     </row>
     <row r="261" spans="2:11" ht="51.6" thickBot="1">
       <c r="B261" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>18</v>
@@ -13935,13 +13934,13 @@
         <v>2020</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F261" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G261" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H261" s="13" t="s">
         <v>245</v>
@@ -13958,7 +13957,7 @@
     </row>
     <row r="262" spans="2:11" ht="51.6" thickBot="1">
       <c r="B262" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>135</v>
@@ -13967,13 +13966,13 @@
         <v>2022</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F262" s="13" t="s">
         <v>238</v>
       </c>
       <c r="G262" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H262" s="13" t="s">
         <v>133</v>
@@ -13990,7 +13989,7 @@
     </row>
     <row r="263" spans="2:11" ht="41.4" thickBot="1">
       <c r="B263" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>18</v>
@@ -13999,13 +13998,13 @@
         <v>2021</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F263" s="13" t="s">
         <v>158</v>
       </c>
       <c r="G263" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H263" s="13" t="s">
         <v>133</v>
@@ -14022,7 +14021,7 @@
     </row>
     <row r="264" spans="2:11" ht="61.8" thickBot="1">
       <c r="B264" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>18</v>
@@ -14031,16 +14030,16 @@
         <v>2017</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>238</v>
       </c>
       <c r="G264" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H264" s="13" t="s">
         <v>1252</v>
-      </c>
-      <c r="H264" s="13" t="s">
-        <v>1253</v>
       </c>
       <c r="I264" s="13" t="s">
         <v>845</v>
@@ -14054,7 +14053,7 @@
     </row>
     <row r="265" spans="2:11" ht="61.8" thickBot="1">
       <c r="B265" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>18</v>
@@ -14063,16 +14062,16 @@
         <v>2023</v>
       </c>
       <c r="E265" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F265" s="13" t="s">
         <v>1255</v>
       </c>
-      <c r="F265" s="13" t="s">
+      <c r="G265" s="13" t="s">
         <v>1256</v>
       </c>
-      <c r="G265" s="13" t="s">
+      <c r="H265" s="13" t="s">
         <v>1257</v>
-      </c>
-      <c r="H265" s="13" t="s">
-        <v>1258</v>
       </c>
       <c r="I265" s="13" t="s">
         <v>845</v>
@@ -14086,7 +14085,7 @@
     </row>
     <row r="266" spans="2:11" ht="61.8" thickBot="1">
       <c r="B266" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>18</v>
@@ -14095,16 +14094,16 @@
         <v>2018</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F266" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G266" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I266" s="13" t="s">
         <v>845</v>
@@ -14118,22 +14117,22 @@
     </row>
     <row r="267" spans="2:11" ht="31.2" thickBot="1">
       <c r="B267" s="14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>1262</v>
-      </c>
-      <c r="C267" s="13" t="s">
-        <v>1263</v>
       </c>
       <c r="D267" s="13">
         <v>2021</v>
       </c>
       <c r="E267" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F267" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G267" s="13" t="s">
         <v>1264</v>
-      </c>
-      <c r="F267" s="13" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G267" s="13" t="s">
-        <v>1265</v>
       </c>
       <c r="H267" s="13" t="s">
         <v>133</v>
@@ -14150,22 +14149,22 @@
     </row>
     <row r="268" spans="2:11" ht="31.2" thickBot="1">
       <c r="B268" s="14" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C268" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="C268" s="13" t="s">
-        <v>1267</v>
       </c>
       <c r="D268" s="13">
         <v>2019</v>
       </c>
       <c r="E268" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F268" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G268" s="13" t="s">
         <v>1268</v>
-      </c>
-      <c r="F268" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G268" s="13" t="s">
-        <v>1269</v>
       </c>
       <c r="H268" s="13" t="s">
         <v>133</v>
@@ -14182,28 +14181,28 @@
     </row>
     <row r="269" spans="2:11" ht="41.4" thickBot="1">
       <c r="B269" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C269" s="13" t="s">
         <v>1270</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>1271</v>
       </c>
       <c r="D269" s="13">
         <v>2023</v>
       </c>
       <c r="E269" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F269" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G269" s="13" t="s">
         <v>1272</v>
-      </c>
-      <c r="F269" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G269" s="13" t="s">
-        <v>1273</v>
       </c>
       <c r="H269" s="13" t="s">
         <v>131</v>
       </c>
       <c r="I269" s="13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J269" s="13">
         <v>4</v>
@@ -14214,7 +14213,7 @@
     </row>
     <row r="270" spans="2:11" ht="31.2" thickBot="1">
       <c r="B270" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>135</v>
@@ -14223,16 +14222,16 @@
         <v>2021</v>
       </c>
       <c r="E270" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G270" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="F270" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G270" s="13" t="s">
-        <v>1277</v>
-      </c>
       <c r="H270" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I270" s="13" t="s">
         <v>845</v>
@@ -14246,7 +14245,7 @@
     </row>
     <row r="271" spans="2:11" ht="31.2" thickBot="1">
       <c r="B271" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>18</v>
@@ -14255,16 +14254,16 @@
         <v>2021</v>
       </c>
       <c r="E271" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F271" s="13" t="s">
         <v>1279</v>
       </c>
-      <c r="F271" s="13" t="s">
+      <c r="G271" s="13" t="s">
         <v>1280</v>
       </c>
-      <c r="G271" s="13" t="s">
-        <v>1281</v>
-      </c>
       <c r="H271" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I271" s="13" t="s">
         <v>845</v>
@@ -14278,7 +14277,7 @@
     </row>
     <row r="272" spans="2:11" ht="31.2" thickBot="1">
       <c r="B272" s="14" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>18</v>
@@ -14287,13 +14286,13 @@
         <v>2022</v>
       </c>
       <c r="E272" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F272" s="13" t="s">
         <v>1283</v>
       </c>
-      <c r="F272" s="13" t="s">
+      <c r="G272" s="13" t="s">
         <v>1284</v>
-      </c>
-      <c r="G272" s="13" t="s">
-        <v>1285</v>
       </c>
       <c r="H272" s="13" t="s">
         <v>133</v>
@@ -14310,7 +14309,7 @@
     </row>
     <row r="273" spans="2:11" ht="82.2" thickBot="1">
       <c r="B273" s="14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>18</v>
@@ -14319,13 +14318,13 @@
         <v>2019</v>
       </c>
       <c r="E273" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F273" s="13" t="s">
         <v>1287</v>
       </c>
-      <c r="F273" s="13" t="s">
+      <c r="G273" s="13" t="s">
         <v>1288</v>
-      </c>
-      <c r="G273" s="13" t="s">
-        <v>1289</v>
       </c>
       <c r="H273" s="13" t="s">
         <v>133</v>
@@ -14342,7 +14341,7 @@
     </row>
     <row r="274" spans="2:11" ht="31.2" thickBot="1">
       <c r="B274" s="14" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>18</v>
@@ -14351,16 +14350,16 @@
         <v>2021</v>
       </c>
       <c r="E274" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F274" s="13" t="s">
         <v>1291</v>
       </c>
-      <c r="F274" s="13" t="s">
+      <c r="G274" s="13" t="s">
         <v>1292</v>
       </c>
-      <c r="G274" s="13" t="s">
-        <v>1293</v>
-      </c>
       <c r="H274" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I274" s="13" t="s">
         <v>845</v>
@@ -14374,7 +14373,7 @@
     </row>
     <row r="275" spans="2:11" ht="31.2" thickBot="1">
       <c r="B275" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>18</v>
@@ -14383,16 +14382,16 @@
         <v>2021</v>
       </c>
       <c r="E275" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F275" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="F275" s="13" t="s">
+      <c r="G275" s="13" t="s">
         <v>1296</v>
       </c>
-      <c r="G275" s="13" t="s">
-        <v>1297</v>
-      </c>
       <c r="H275" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I275" s="13" t="s">
         <v>845</v>
@@ -14406,7 +14405,7 @@
     </row>
     <row r="276" spans="2:11" ht="41.4" thickBot="1">
       <c r="B276" s="14" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>18</v>
@@ -14415,13 +14414,13 @@
         <v>2018</v>
       </c>
       <c r="E276" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="G276" s="13" t="s">
         <v>1299</v>
-      </c>
-      <c r="F276" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="G276" s="13" t="s">
-        <v>1300</v>
       </c>
       <c r="H276" s="13" t="s">
         <v>133</v>
@@ -14438,7 +14437,7 @@
     </row>
     <row r="277" spans="2:11" ht="41.4" thickBot="1">
       <c r="B277" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>18</v>
@@ -14447,16 +14446,16 @@
         <v>2021</v>
       </c>
       <c r="E277" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F277" s="13" t="s">
         <v>1302</v>
       </c>
-      <c r="F277" s="13" t="s">
+      <c r="G277" s="13" t="s">
         <v>1303</v>
       </c>
-      <c r="G277" s="13" t="s">
-        <v>1304</v>
-      </c>
       <c r="H277" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I277" s="13" t="s">
         <v>845</v>
